--- a/Tercero/Estadistica/Oscar/Resumen.xlsx
+++ b/Tercero/Estadistica/Oscar/Resumen.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="1" r:id="rId1"/>
     <sheet name="Simulacion variables aleatorias" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" calcMode="manual"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Datos</t>
   </si>
@@ -72,11 +72,29 @@
   <si>
     <t>Etiqueta</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>tabla</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>tabla bidimensional, la x es la columna y la y es la fila</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6842,604 +6860,604 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>0.55410614852240414</c:v>
+                  <c:v>0.77959812057972211</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10745522674366093</c:v>
+                  <c:v>0.67480516665949319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79210959341893084</c:v>
+                  <c:v>0.79147825899500523</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60323709852509277</c:v>
+                  <c:v>0.54654065878107749</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19517668220421724</c:v>
+                  <c:v>0.22923350353566307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44514394829609449</c:v>
+                  <c:v>0.99799268945893671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7194028810063704</c:v>
+                  <c:v>0.51884950786550377</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80003919354931197</c:v>
+                  <c:v>0.63167669258201686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38258044295164706</c:v>
+                  <c:v>2.1726205933205622E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95939856803374779</c:v>
+                  <c:v>0.36853256098477016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7424390292321714E-2</c:v>
+                  <c:v>0.84979139661131553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.32515434836889234</c:v>
+                  <c:v>0.8870981776529232</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.7029619406792538E-2</c:v>
+                  <c:v>0.85544375223450064</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.57365835712216062</c:v>
+                  <c:v>0.69688362818778848</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2834649497733045</c:v>
+                  <c:v>0.47846901687022447</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.48454738455542656</c:v>
+                  <c:v>0.78329287777805501</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.58083143667962744</c:v>
+                  <c:v>0.58569003186085045</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.88214193862814994</c:v>
+                  <c:v>0.32544936435547178</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.49943765213190106</c:v>
+                  <c:v>0.75486247722658617</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.77192075251548764</c:v>
+                  <c:v>0.13996115312500135</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.56418018799586755</c:v>
+                  <c:v>0.1849618361190789</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.7204372102550588</c:v>
+                  <c:v>1.8944895532864936E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.20668378741847704</c:v>
+                  <c:v>0.26146967698006152</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.15824927391242583</c:v>
+                  <c:v>0.59187021094238479</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.51918684449332753</c:v>
+                  <c:v>0.51757989909867896</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.15063463429508439</c:v>
+                  <c:v>0.71869483623984798</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.25936041253136655</c:v>
+                  <c:v>0.26779917636588724</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.20298735131280932</c:v>
+                  <c:v>0.17129155291068909</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.87317622433027842</c:v>
+                  <c:v>0.62268523437973222</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.85700185449467758</c:v>
+                  <c:v>0.96094183849798043</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.49494416337923153</c:v>
+                  <c:v>0.54737099462954675</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.13382389661550653</c:v>
+                  <c:v>0.20365063178349863</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.78367839264504657</c:v>
+                  <c:v>0.98171960860351137</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.9173845739539619E-3</c:v>
+                  <c:v>0.55293299734630486</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1834265585194278</c:v>
+                  <c:v>0.19215898556534916</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.87718657163129021</c:v>
+                  <c:v>0.82373308783158683</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3365357097207603</c:v>
+                  <c:v>0.94414517435958367</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3847193998281464</c:v>
+                  <c:v>0.6148342664073928</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.65215354982227636</c:v>
+                  <c:v>0.14529033820015447</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.41436441757243814</c:v>
+                  <c:v>0.77496177876813255</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.69263158343632669</c:v>
+                  <c:v>0.5346383715100802</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.58871740636356384</c:v>
+                  <c:v>0.54756501780436495</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.73638149547088938</c:v>
+                  <c:v>0.54129564808760589</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.24135020384707284</c:v>
+                  <c:v>0.87869903351074341</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.6147571230628367</c:v>
+                  <c:v>0.97360070272122057</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.65556704953490696</c:v>
+                  <c:v>0.94005382375696855</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.88550910748621625</c:v>
+                  <c:v>0.37090910975345837</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.50450440184808953</c:v>
+                  <c:v>0.47167625616959241</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.6980611799840237E-2</c:v>
+                  <c:v>0.84605206260222965</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.31898917255903469</c:v>
+                  <c:v>8.3375853528625532E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.35578381999872244</c:v>
+                  <c:v>0.62141573950945495</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.49314278924280475</c:v>
+                  <c:v>0.18457554228618234</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.87088403110691026</c:v>
+                  <c:v>0.31813257686763796</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.9968050102014985E-2</c:v>
+                  <c:v>0.93193562286449894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.26378621328686869</c:v>
+                  <c:v>0.7356437877831199</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.82223331312889203</c:v>
+                  <c:v>0.89725536564351638</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.99984509778899733</c:v>
+                  <c:v>0.55704710411099112</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.29902440398152641</c:v>
+                  <c:v>4.0118705537369626E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.73764428862858411</c:v>
+                  <c:v>0.92412351109379187</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.26405279648006208</c:v>
+                  <c:v>0.89591913826473402</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.69630312542383332</c:v>
+                  <c:v>0.48135691988354057</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.43798774878045443</c:v>
+                  <c:v>0.6017616698046051</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.59321521272337097</c:v>
+                  <c:v>0.25567089055648007</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.65648937194570456</c:v>
+                  <c:v>3.7945723208290594E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.15848047612314853</c:v>
+                  <c:v>0.84165629887592019</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.75222549762412738</c:v>
+                  <c:v>0.18986804465662288</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.66699418175216518</c:v>
+                  <c:v>6.6064194818062028E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.28561149777401507</c:v>
+                  <c:v>0.27825008506442117</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.9873460740703193E-2</c:v>
+                  <c:v>0.4018643778636608</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.76777884278403952</c:v>
+                  <c:v>0.93188561960678473</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.17928650210752173</c:v>
+                  <c:v>0.11584941129815163</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.12491609159717931</c:v>
+                  <c:v>0.438290223833809</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.28362389828230672</c:v>
+                  <c:v>0.32686211261830589</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.65639390385459528</c:v>
+                  <c:v>0.9741863041374843</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.76172686001345058</c:v>
+                  <c:v>0.92664437352217155</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.91645660197441281</c:v>
+                  <c:v>0.91915534877495986</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.7918699155746638E-2</c:v>
+                  <c:v>0.73342128204193924</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.79051820665131045</c:v>
+                  <c:v>0.22355551283511232</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.78672004094853054</c:v>
+                  <c:v>0.87302794840078723</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.32480778609797822</c:v>
+                  <c:v>0.52234208301403195</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.83698429646011319</c:v>
+                  <c:v>0.41947338661646316</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.43260728150093519</c:v>
+                  <c:v>0.27928923924381543</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.97655895198931386</c:v>
+                  <c:v>0.8082965056675866</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.29027994215713593</c:v>
+                  <c:v>0.90495330928104822</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.7847100828180973E-2</c:v>
+                  <c:v>0.9865969195330182</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.20800905697671623</c:v>
+                  <c:v>0.27822812719867884</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.8015655590963897E-3</c:v>
+                  <c:v>0.57287282650518923</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.16480604740636562</c:v>
+                  <c:v>0.35774884611427482</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.6153232675123399E-2</c:v>
+                  <c:v>0.56394889091495992</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.78664565263990149</c:v>
+                  <c:v>0.78527344307684854</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.9305966153037626E-2</c:v>
+                  <c:v>0.37094836007961107</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.77151839368318664</c:v>
+                  <c:v>0.75223506601822532</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.96814103498779214</c:v>
+                  <c:v>0.52860775203936461</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.33332241965117293</c:v>
+                  <c:v>0.71714200384582538</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.2190188131309091</c:v>
+                  <c:v>9.4788471400791829E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.45811765969283857</c:v>
+                  <c:v>0.95962684419450273</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.87687886585726038</c:v>
+                  <c:v>0.32119724599161004</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.83631524446402816</c:v>
+                  <c:v>0.80427980660661491</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.68880930658777195</c:v>
+                  <c:v>4.2810732464536816E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.2767117367421559E-2</c:v>
+                  <c:v>0.46582343381749169</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.81091888695878789</c:v>
+                  <c:v>6.2755552828845484E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.2830830889103596</c:v>
+                  <c:v>0.96839028720981601</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.14280287410952208</c:v>
+                  <c:v>0.39053068624493981</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.22337214276613515</c:v>
+                  <c:v>0.67785668005201372</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.89912057325192107</c:v>
+                  <c:v>0.68669385230190227</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.7681047880424644</c:v>
+                  <c:v>0.87341694147798188</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.19403576655198351</c:v>
+                  <c:v>0.29444142725536182</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.51195542715374209</c:v>
+                  <c:v>0.49695319978862307</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.82836051781244469</c:v>
+                  <c:v>0.67080898632519015</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.90011867197626072</c:v>
+                  <c:v>0.71082465349444268</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.1603068610250067E-2</c:v>
+                  <c:v>0.75324951384514149</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>9.2741367530880692E-2</c:v>
+                  <c:v>0.92226944533221666</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.2866756174699534</c:v>
+                  <c:v>0.97177862420060701</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.25112286711559684</c:v>
+                  <c:v>4.1496278735105196E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.72167163801529433</c:v>
+                  <c:v>2.8661586881408074E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.28551930603639941</c:v>
+                  <c:v>0.77389027702547308</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.37075089527233029</c:v>
+                  <c:v>0.68450202160632179</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.44133746426674858</c:v>
+                  <c:v>0.66711884074805861</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.85087163778195274</c:v>
+                  <c:v>0.18454918870863624</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.93003177251765501</c:v>
+                  <c:v>0.20154424120243353</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.62318280406707227</c:v>
+                  <c:v>0.29950855567467438</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.50092440590063225</c:v>
+                  <c:v>0.87226905643382457</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.11153602981455757</c:v>
+                  <c:v>1.3919005302560739E-2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.44764779399730259</c:v>
+                  <c:v>4.4403619699869834E-2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>8.8351399490914195E-2</c:v>
+                  <c:v>0.6485721970782572</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.45448450352201197</c:v>
+                  <c:v>0.15098899219748863</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.65963156368237297</c:v>
+                  <c:v>0.39623658021282848</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.97541043210747391</c:v>
+                  <c:v>0.93368300314631036</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>8.490983495164095E-2</c:v>
+                  <c:v>7.0222334047999491E-2</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.34040771490960886</c:v>
+                  <c:v>3.49584761495767E-2</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.93836505860126451</c:v>
+                  <c:v>0.75405822999473104</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.79435033806399435</c:v>
+                  <c:v>0.18434356020580944</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.7176909628713396</c:v>
+                  <c:v>0.49360090989699512</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.20800437664405325</c:v>
+                  <c:v>0.58785153802494328</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>8.5130233345543815E-2</c:v>
+                  <c:v>0.69979526756166976</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6.6623787587149041E-2</c:v>
+                  <c:v>0.69669209166917234</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.74862880223516615</c:v>
+                  <c:v>0.34513264811035649</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.88545725210319193</c:v>
+                  <c:v>1.9996704573441937E-2</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.8882490495690134</c:v>
+                  <c:v>0.93719341090282482</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.99066955700287462</c:v>
+                  <c:v>0.14380873669312977</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>9.5904716483011576E-2</c:v>
+                  <c:v>0.72477598280674327</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.51521877092705393</c:v>
+                  <c:v>0.47369048596405916</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.54924818728093883</c:v>
+                  <c:v>0.53541818546447673</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.46191571640826168</c:v>
+                  <c:v>0.97736142425085659</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.18925144071115962</c:v>
+                  <c:v>0.71572293234317175</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.98907434782874115</c:v>
+                  <c:v>0.97146952333253866</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.54909769524970298</c:v>
+                  <c:v>0.99438978423477542</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.72631774979058961</c:v>
+                  <c:v>9.599420429923855E-2</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.96939211286809324</c:v>
+                  <c:v>0.93400733158703242</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.19187299655223888</c:v>
+                  <c:v>0.4165054689348987</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.6498403044945289</c:v>
+                  <c:v>0.15839857283170355</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.67643264597890751</c:v>
+                  <c:v>0.91079043337455168</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.38539100742983101</c:v>
+                  <c:v>7.4299535383864801E-2</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.98708073760575354</c:v>
+                  <c:v>0.10266735030560414</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.32370028826842989</c:v>
+                  <c:v>0.86082904323023102</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.97865684800581343</c:v>
+                  <c:v>0.79997271499011702</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1.1849115575109148E-2</c:v>
+                  <c:v>0.42550214431716338</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.44226850680954</c:v>
+                  <c:v>0.62335239322220803</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.67210185667352951</c:v>
+                  <c:v>0.53730292678653779</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.79464066770049469</c:v>
+                  <c:v>0.69369532151843583</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.2163443988740158</c:v>
+                  <c:v>0.82502103785631387</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>4.5880649373329363E-2</c:v>
+                  <c:v>0.72272760284956905</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.11182793637981703</c:v>
+                  <c:v>0.10922494985341524</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.19627253360036034</c:v>
+                  <c:v>1.9021644112930169E-2</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.64940998471563738</c:v>
+                  <c:v>0.45906286230269089</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.6234346995622696</c:v>
+                  <c:v>0.13841177395379134</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.95767758960244986</c:v>
+                  <c:v>0.90696045989678475</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>5.2698056941402505E-2</c:v>
+                  <c:v>0.99921543424879666</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.78750968517581632</c:v>
+                  <c:v>0.33570262963980202</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.82455628892642652</c:v>
+                  <c:v>0.20963851876147577</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.51111892426015093</c:v>
+                  <c:v>0.90211433731322066</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.82578498376062692</c:v>
+                  <c:v>0.77396241255011033</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.31900012175791825</c:v>
+                  <c:v>0.23581171986936844</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.79346258028137873</c:v>
+                  <c:v>0.41917920876350934</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.26520151168125217</c:v>
+                  <c:v>0.39619666922412056</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.89643956660368118</c:v>
+                  <c:v>0.3776248742635363</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>8.4323970100750767E-2</c:v>
+                  <c:v>0.52201791031960532</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.67930705332023233</c:v>
+                  <c:v>0.36783732336919861</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.69029050972927741</c:v>
+                  <c:v>0.99081985926586003</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.29439091045142129</c:v>
+                  <c:v>0.44453451700213276</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.50010515264930089</c:v>
+                  <c:v>0.37527086074830551</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.48874563270619897</c:v>
+                  <c:v>0.17395593450875213</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.39577838394165465</c:v>
+                  <c:v>4.3756838801653486E-2</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.3626312850487412</c:v>
+                  <c:v>0.26027276329076277</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.93803194204519846</c:v>
+                  <c:v>1.6649041554303912E-2</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.86665957006120653</c:v>
+                  <c:v>0.96871205800652749</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.41254812769548721</c:v>
+                  <c:v>0.53994470723382382</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.86614772850563604</c:v>
+                  <c:v>0.8670231189373474</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.20248651774085658</c:v>
+                  <c:v>0.27084335601418874</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.4373204754345924</c:v>
+                  <c:v>0.49208946301053147</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.38951582972495691</c:v>
+                  <c:v>0.69358148303884393</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.17140076331900922</c:v>
+                  <c:v>0.11419788023285005</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.21985326995234622</c:v>
+                  <c:v>7.3914170148958735E-2</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.91713015398952991</c:v>
+                  <c:v>0.26567059171828389</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.5276485637319861</c:v>
+                  <c:v>0.17973578875178464</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.9087995485053344</c:v>
+                  <c:v>0.68001784681212984</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.94302080072730099</c:v>
+                  <c:v>0.70901014463867529</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.66080541982244312</c:v>
+                  <c:v>0.51262344534000837</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.58010866921691318</c:v>
+                  <c:v>0.12538870981903938</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.74025688110935639</c:v>
+                  <c:v>0.45286329580264295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7749,604 +7767,604 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>0.30703362383033261</c:v>
+                  <c:v>0.60777322961143498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1546625754531583E-2</c:v>
+                  <c:v>0.4553620129503464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62743760798630388</c:v>
+                  <c:v>0.6264378344617646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36389499703697248</c:v>
+                  <c:v>0.29870669170085418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8093937276246014E-2</c:v>
+                  <c:v>5.2547999143234853E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19815313470463605</c:v>
+                  <c:v>0.9959894082134817</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51754050520026595</c:v>
+                  <c:v>0.26920481181227546</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64006271121503344</c:v>
+                  <c:v>0.39901544395135585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14636779532907848</c:v>
+                  <c:v>4.7202802425205917E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92044561234520583</c:v>
+                  <c:v>0.13581624850599333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2975606004448923E-3</c:v>
+                  <c:v>0.72214541775461016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.105725350263199</c:v>
+                  <c:v>0.78694317679513726</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.9335622659553097E-3</c:v>
+                  <c:v>0.73178401323704168</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.32908391069609638</c:v>
+                  <c:v>0.48564679123617582</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.0352377749982037E-2</c:v>
+                  <c:v>0.22893260010475916</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.23478616787950443</c:v>
+                  <c:v>0.613547732377827</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33736515783532006</c:v>
+                  <c:v>0.34303281342116398</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.77817439988663062</c:v>
+                  <c:v>0.10591728875938063</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.24943796836702581</c:v>
+                  <c:v>0.56981735952465828</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.59586164816407672</c:v>
+                  <c:v>1.9589124384080073E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.31829928452705247</c:v>
+                  <c:v>3.4210880820541002E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.51902977392009175</c:v>
+                  <c:v>3.5890906675116582E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.2718187981646207E-2</c:v>
+                  <c:v>6.8366391980057714E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.5042832693809976E-2</c:v>
+                  <c:v>0.35031034660098309</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.26955497949493867</c:v>
+                  <c:v>0.26788895195099871</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2690793049213814E-2</c:v>
+                  <c:v>0.51652226763782194</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.7267823588440634E-2</c:v>
+                  <c:v>7.171639886224758E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.1203864792989868E-2</c:v>
+                  <c:v>2.9340796098555402E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.76243671873568075</c:v>
+                  <c:v>0.38773690111454207</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.73445217860731649</c:v>
+                  <c:v>0.92340921697587874</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.24496972486316743</c:v>
+                  <c:v>0.29961500576173927</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7908835305357782E-2</c:v>
+                  <c:v>4.147357982581814E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.61415182309872374</c:v>
+                  <c:v>0.96377338991663153</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.676363604436616E-6</c:v>
+                  <c:v>0.30573489955436878</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3645302370281072E-2</c:v>
+                  <c:v>3.6925075733504065E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.76945628145025668</c:v>
+                  <c:v>0.67853619998856074</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.11325628391725584</c:v>
+                  <c:v>0.89141011026648864</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.14800901660412918</c:v>
+                  <c:v>0.37802117514871686</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.42530425254579629</c:v>
+                  <c:v>2.1109282374315263E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.17169787055014588</c:v>
+                  <c:v>0.60056575855146799</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.47973851037351317</c:v>
+                  <c:v>0.28583818829095053</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.34658818455544155</c:v>
+                  <c:v>0.29982744872309453</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.54225770687194352</c:v>
+                  <c:v>0.29300097863858127</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.8249920897023612E-2</c:v>
+                  <c:v>0.77211199149271459</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.37792632035649576</c:v>
+                  <c:v>0.94789832833925447</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.42976815643590316</c:v>
+                  <c:v>0.88370119156009774</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.78412637944103525</c:v>
+                  <c:v>0.13757356769810303</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.25452469148409862</c:v>
+                  <c:v>0.22247849063416297</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.2795341309367823E-4</c:v>
+                  <c:v>0.7158040926334871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.10175409220989762</c:v>
+                  <c:v>6.9515329516268182E-5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.12658212657288334</c:v>
+                  <c:v>0.38615752131008274</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.24318981058217334</c:v>
+                  <c:v>3.4068130810238281E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.75843899563702188</c:v>
+                  <c:v>0.10120833646444358</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.59744502895718E-3</c:v>
+                  <c:v>0.86850400516384163</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.9583166320225376E-2</c:v>
+                  <c:v>0.54117178250389597</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.67606762121891462</c:v>
+                  <c:v>0.80506719117608028</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.99969021957268966</c:v>
+                  <c:v>0.31030147619844139</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.9415594176507102E-2</c:v>
+                  <c:v>1.6095105339941722E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.54411909654636992</c:v>
+                  <c:v>0.85400426375631766</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.9723879328941085E-2</c:v>
+                  <c:v>0.80267110230902361</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.48483804247499857</c:v>
+                  <c:v>0.23170448431976928</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.19183326808177045</c:v>
+                  <c:v>0.36211710724602658</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.35190428860643425</c:v>
+                  <c:v>6.5367604277943608E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.43097829547766564</c:v>
+                  <c:v>1.4398779098002035E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.5116061312219849E-2</c:v>
+                  <c:v>0.70838532543751231</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.56584319927586602</c:v>
+                  <c:v>3.6049874381729338E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.44488123849124034</c:v>
+                  <c:v>4.3644778369588541E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.1573927660716208E-2</c:v>
+                  <c:v>7.7423109838357623E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.5898928714403989E-3</c:v>
+                  <c:v>0.16149497819574715</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.58948435142679889</c:v>
+                  <c:v>0.8684108080299211</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.2143649837950393E-2</c:v>
+                  <c:v>1.3421086098128303E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.5604029939914893E-2</c:v>
+                  <c:v>0.19209832030829038</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.0442515676852275E-2</c:v>
+                  <c:v>0.10683884066530208</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.43085295701747567</c:v>
+                  <c:v>0.94903895516905112</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.58022780926595097</c:v>
+                  <c:v>0.85866979498029783</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.83989270330248733</c:v>
+                  <c:v>0.84484655518161811</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.4378277456640208E-3</c:v>
+                  <c:v>0.53790677695204181</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.62491903504720403</c:v>
+                  <c:v>4.9977067318970073E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.61892842283005756</c:v>
+                  <c:v>0.76217779868888758</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.10550009790986997</c:v>
+                  <c:v>0.27284125168743784</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.70054271252083067</c:v>
+                  <c:v>0.17595792207948477</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.18714906000762938</c:v>
+                  <c:v>7.8002479157389171E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.95366738671046702</c:v>
+                  <c:v>0.65334324107443087</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.4262444818750185E-2</c:v>
+                  <c:v>0.81894049197872054</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.1851900797125795E-4</c:v>
+                  <c:v>0.97337348163204074</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.3267767784342777E-2</c:v>
+                  <c:v>7.7410890764484208E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.6261294054686182E-5</c:v>
+                  <c:v>0.32818327534804465</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.7161033261709232E-2</c:v>
+                  <c:v>0.12798423689609509</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.1531855398665462E-3</c:v>
+                  <c:v>0.31803835156421334</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.61881138281725656</c:v>
+                  <c:v>0.61665438040176845</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.5171976213452445E-3</c:v>
+                  <c:v>0.1376026858457528</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.59524063179148456</c:v>
+                  <c:v>0.56585759454744378</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.93729706362723331</c:v>
+                  <c:v>0.27942615551611039</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.11110383544211264</c:v>
+                  <c:v>0.51429265368000587</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.7969240505272077E-2</c:v>
+                  <c:v>8.9848543104987304E-5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.20987179012244345</c:v>
+                  <c:v>0.92088368009870036</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.76891654538711529</c:v>
+                  <c:v>0.10316767083259484</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.69942318812292714</c:v>
+                  <c:v>0.64686600731517385</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.47445826084192722</c:v>
+                  <c:v>1.8327588141501465E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8290263279188107E-3</c:v>
+                  <c:v>0.21699147149351908</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.65758944122647944</c:v>
+                  <c:v>3.9382594108540161E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.0136035227030555E-2</c:v>
+                  <c:v>0.93777974836230993</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.0392660853940012E-2</c:v>
+                  <c:v>0.15251421689894362</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.9895114163934662E-2</c:v>
+                  <c:v>0.4594896786911381</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.80841780524486317</c:v>
+                  <c:v>0.47154844678922675</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.58998496541375922</c:v>
+                  <c:v>0.76285715366075246</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3.7649878701415847E-2</c:v>
+                  <c:v>8.6695754084174528E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.26209835939217052</c:v>
+                  <c:v>0.24696248278015112</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.68618114747050152</c:v>
+                  <c:v>0.44998469613462916</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.81021362364030725</c:v>
+                  <c:v>0.50527168801549449</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.3463120117417041E-4</c:v>
+                  <c:v>0.56738483010794205</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>8.6009612514978909E-3</c:v>
+                  <c:v>0.85058092979339461</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>8.218290965177906E-2</c:v>
+                  <c:v>0.94435369445322459</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>6.306269438835771E-2</c:v>
+                  <c:v>1.7219411488615438E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.52080995311567801</c:v>
+                  <c:v>8.2148656256050346E-4</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>8.1521274119507103E-2</c:v>
+                  <c:v>0.5989061608745635</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.13745622634523444</c:v>
+                  <c:v>0.46854301758314143</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.19477875736540359</c:v>
+                  <c:v>0.44504754768103361</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.72398254398174255</c:v>
+                  <c:v>3.4058403053015829E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.86495909789233116</c:v>
+                  <c:v>4.0620081161864705E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.38835680728489896</c:v>
+                  <c:v>8.9705374922329523E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.25092526042690139</c:v>
+                  <c:v>0.76085330681195462</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.2440285946793875E-2</c:v>
+                  <c:v>1.9373870861271396E-4</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.20038854747065146</c:v>
+                  <c:v>1.9716814424506684E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>7.8059697920031135E-3</c:v>
+                  <c:v>0.4206458948229177</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.20655616394164972</c:v>
+                  <c:v>2.2797675764813282E-2</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.43511379980605247</c:v>
+                  <c:v>0.15700342749875726</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.95142551106408901</c:v>
+                  <c:v>0.87176395036431298</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>7.2096800715149073E-3</c:v>
+                  <c:v>4.9311761991488283E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.11587741236998154</c:v>
+                  <c:v>1.2220950547005231E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.88052898320375461</c:v>
+                  <c:v>0.56860381422278672</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.63099245958238215</c:v>
+                  <c:v>3.3982548189352889E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.51508031818719058</c:v>
+                  <c:v>0.24364185825114149</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>4.3265820703081166E-2</c:v>
+                  <c:v>0.34556943075829133</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>7.2471566294667403E-3</c:v>
+                  <c:v>0.48971341650170896</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>4.4387290724575545E-3</c:v>
+                  <c:v>0.48537987059436644</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.56044508353605949</c:v>
+                  <c:v>0.11911654479166715</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.78403454530213557</c:v>
+                  <c:v>3.9986819379751368E-4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.78898637406025562</c:v>
+                  <c:v>0.8783314894396711</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.98142617117227182</c:v>
+                  <c:v>2.0680952749273927E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>9.1977146436868322E-3</c:v>
+                  <c:v>0.52530022525348063</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.26545038191558407</c:v>
+                  <c:v>0.22438267649286653</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.30167357123139726</c:v>
+                  <c:v>0.28667263332607279</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.21336612906495764</c:v>
+                  <c:v>0.95523535361366285</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3.5816107811249567E-2</c:v>
+                  <c:v>0.51225931588190843</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.97826806553284962</c:v>
+                  <c:v>0.94375303476394989</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.30150827892853571</c:v>
+                  <c:v>0.98881104299048317</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.52753747366086556</c:v>
+                  <c:v>9.2148872590439492E-3</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.93972106849086601</c:v>
+                  <c:v>0.87236969545832876</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3.6815246805935474E-2</c:v>
+                  <c:v>0.17347680565267987</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.42229242134554201</c:v>
+                  <c:v>2.5090107875120494E-2</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.45756112454602604</c:v>
+                  <c:v>0.82953921352660365</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.14852622860778006</c:v>
+                  <c:v>5.5204209582581775E-3</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.97432838255231846</c:v>
+                  <c:v>1.0540584818773636E-2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.10478187662506461</c:v>
+                  <c:v>0.74102664166867493</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.95776922614867377</c:v>
+                  <c:v>0.63995634472865903</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1.4040153991229419E-4</c:v>
+                  <c:v>0.18105207481850413</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.19560143211554012</c:v>
+                  <c:v>0.38856820613585424</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.45172090574400559</c:v>
+                  <c:v>0.28869443513337961</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.63145379076348807</c:v>
+                  <c:v>0.48121319909656607</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>4.6804898924159247E-2</c:v>
+                  <c:v>0.68065971290550931</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.1050339869183882E-3</c:v>
+                  <c:v>0.52233518792068445</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.2505487354968405E-2</c:v>
+                  <c:v>1.1930089670481075E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.8522907445904579E-2</c:v>
+                  <c:v>3.6182294475897096E-4</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.42173332824836435</c:v>
+                  <c:v>0.21073871154553933</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.38867082461829738</c:v>
+                  <c:v>1.9157819169035431E-2</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.91714636562675844</c:v>
+                  <c:v>0.82257727581618734</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.7770852053993007E-3</c:v>
+                  <c:v>0.99843148404101134</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.62017150424571332</c:v>
+                  <c:v>0.11269625554707809</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.67989307360812057</c:v>
+                  <c:v>4.3948308548505628E-2</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.26124255473685393</c:v>
+                  <c:v>0.81381027758607127</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.68192083940453885</c:v>
+                  <c:v>0.59901781604038717</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.10176107768156667</c:v>
+                  <c:v>5.5607167227749492E-2</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.6295828663067834</c:v>
+                  <c:v>0.17571120905960175</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>7.0331841798021336E-2</c:v>
+                  <c:v>0.15697180070428721</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.80360389657259579</c:v>
+                  <c:v>0.14260054566255159</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>7.110531933552309E-3</c:v>
+                  <c:v>0.27250269869444749</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.46145807269061695</c:v>
+                  <c:v>0.13530429646341638</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.47650098782230565</c:v>
+                  <c:v>0.98172399351561868</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>8.6666008156416757E-2</c:v>
+                  <c:v>0.19761093680631947</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.25010516370638053</c:v>
+                  <c:v>0.14082821892677411</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.23887229348938274</c:v>
+                  <c:v>3.0260667150813259E-2</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.15664052919546781</c:v>
+                  <c:v>1.9146609419138881E-3</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.13150144889610141</c:v>
+                  <c:v>6.7741911311009428E-2</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.87990392429708653</c:v>
+                  <c:v>2.771905846769384E-4</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.75109881037867532</c:v>
+                  <c:v>0.93840305132724189</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.17019595766505202</c:v>
+                  <c:v>0.2915402868698197</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.75021188759547297</c:v>
+                  <c:v>0.75172908877184563</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4.1000789866818224E-2</c:v>
+                  <c:v>7.3356123497028594E-2</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.19124919823433795</c:v>
+                  <c:v>0.24215203960599321</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.15172258160632163</c:v>
+                  <c:v>0.48105527361436212</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2.9378221666339015E-2</c:v>
+                  <c:v>1.3041155849676363E-2</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>4.8335460308739218E-2</c:v>
+                  <c:v>5.4633045488092224E-3</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.84112771935685882</c:v>
+                  <c:v>7.0580863303943087E-2</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.27841300680842779</c:v>
+                  <c:v>3.2304953758226153E-2</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.82591661936349969</c:v>
+                  <c:v>0.46242427198300529</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.88928823060435991</c:v>
+                  <c:v>0.50269538520055523</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.4366638028667153</c:v>
+                  <c:v>0.26278279671226057</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.33652606810061797</c:v>
+                  <c:v>1.5722328550083261E-2</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.54798025002975181</c:v>
+                  <c:v>0.20508516468523208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8654,13 +8672,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.115</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.08</c:v>
@@ -8669,19 +8687,19 @@
                   <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.11</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11006,7 +11024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView topLeftCell="H16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -13028,10 +13046,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6:G15"/>
     </sheetView>
   </sheetViews>
@@ -13051,18 +13069,18 @@
       </c>
       <c r="B3">
         <f ca="1">RAND()</f>
-        <v>0.55410614852240414</v>
+        <v>0.77959812057972211</v>
       </c>
       <c r="C3">
         <f ca="1">B3^2</f>
-        <v>0.30703362383033261</v>
+        <v>0.60777322961143498</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3">
         <f ca="1">AVERAGE(C3:C202)</f>
-        <v>0.34407263158212165</v>
+        <v>0.36704784714458916</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -13071,11 +13089,11 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B67" ca="1" si="0">RAND()</f>
-        <v>0.10745522674366093</v>
+        <v>0.67480516665949319</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C67" ca="1" si="1">B4^2</f>
-        <v>1.1546625754531583E-2</v>
+        <v>0.4553620129503464</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -13087,11 +13105,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79210959341893084</v>
+        <v>0.79147825899500523</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62743760798630388</v>
+        <v>0.6264378344617646</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -13112,11 +13130,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60323709852509277</v>
+        <v>0.54654065878107749</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36389499703697248</v>
+        <v>0.29870669170085418</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13126,11 +13144,11 @@
       </c>
       <c r="F6">
         <f ca="1">COUNTIF($B$3:$B$202, "&gt;="&amp;D6)-COUNTIF($B$3:$B$202,"&gt;"&amp;E6)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6">
         <f ca="1">F6/$F$16</f>
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="H6">
         <f>(D6+E6)/2</f>
@@ -13143,11 +13161,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19517668220421724</v>
+        <v>0.22923350353566307</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8093937276246014E-2</v>
+        <v>5.2547999143234853E-2</v>
       </c>
       <c r="D7">
         <v>0.1</v>
@@ -13157,11 +13175,11 @@
       </c>
       <c r="F7">
         <f t="shared" ref="F7:F15" ca="1" si="2">COUNTIF($B$3:$B$202, "&gt;="&amp;D7)-COUNTIF($B$3:$B$202,"&gt;"&amp;E7)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G15" ca="1" si="3">F7/$F$16</f>
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H7">
         <f t="shared" ref="H7:H15" si="4">(D7+E7)/2</f>
@@ -13174,11 +13192,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44514394829609449</v>
+        <v>0.99799268945893671</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19815313470463605</v>
+        <v>0.9959894082134817</v>
       </c>
       <c r="D8">
         <v>0.2</v>
@@ -13188,11 +13206,11 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
@@ -13205,11 +13223,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7194028810063704</v>
+        <v>0.51884950786550377</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51754050520026595</v>
+        <v>0.26920481181227546</v>
       </c>
       <c r="D9">
         <v>0.3</v>
@@ -13236,11 +13254,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80003919354931197</v>
+        <v>0.63167669258201686</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64006271121503344</v>
+        <v>0.39901544395135585</v>
       </c>
       <c r="D10">
         <v>0.4</v>
@@ -13267,11 +13285,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38258044295164706</v>
+        <v>2.1726205933205622E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14636779532907848</v>
+        <v>4.7202802425205917E-4</v>
       </c>
       <c r="D11">
         <v>0.5</v>
@@ -13281,11 +13299,11 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5000000000000006E-2</v>
+        <v>0.105</v>
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
@@ -13298,11 +13316,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95939856803374779</v>
+        <v>0.36853256098477016</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92044561234520583</v>
+        <v>0.13581624850599333</v>
       </c>
       <c r="D12">
         <v>0.6</v>
@@ -13312,11 +13330,11 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
@@ -13329,11 +13347,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7424390292321714E-2</v>
+        <v>0.84979139661131553</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2975606004448923E-3</v>
+        <v>0.72214541775461016</v>
       </c>
       <c r="D13">
         <v>0.7</v>
@@ -13343,11 +13361,11 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.105</v>
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
@@ -13360,11 +13378,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32515434836889234</v>
+        <v>0.8870981776529232</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.105725350263199</v>
+        <v>0.78694317679513726</v>
       </c>
       <c r="D14">
         <v>0.8</v>
@@ -13374,11 +13392,11 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="4"/>
@@ -13391,11 +13409,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7029619406792538E-2</v>
+        <v>0.85544375223450064</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9335622659553097E-3</v>
+        <v>0.73178401323704168</v>
       </c>
       <c r="D15">
         <v>0.9</v>
@@ -13405,11 +13423,11 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5000000000000001E-2</v>
+        <v>0.15</v>
       </c>
       <c r="H15">
         <f t="shared" si="4"/>
@@ -13422,11 +13440,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57365835712216062</v>
+        <v>0.69688362818778848</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32908391069609638</v>
+        <v>0.48564679123617582</v>
       </c>
       <c r="F16">
         <f ca="1">SUM(F6:F15)</f>
@@ -13439,11 +13457,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2834649497733045</v>
+        <v>0.47846901687022447</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0352377749982037E-2</v>
+        <v>0.22893260010475916</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -13452,11 +13470,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48454738455542656</v>
+        <v>0.78329287777805501</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23478616787950443</v>
+        <v>0.613547732377827</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -13465,11 +13483,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58083143667962744</v>
+        <v>0.58569003186085045</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33736515783532006</v>
+        <v>0.34303281342116398</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -13478,11 +13496,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88214193862814994</v>
+        <v>0.32544936435547178</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77817439988663062</v>
+        <v>0.10591728875938063</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -13491,11 +13509,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49943765213190106</v>
+        <v>0.75486247722658617</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24943796836702581</v>
+        <v>0.56981735952465828</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -13504,11 +13522,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77192075251548764</v>
+        <v>0.13996115312500135</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59586164816407672</v>
+        <v>1.9589124384080073E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -13517,11 +13535,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56418018799586755</v>
+        <v>0.1849618361190789</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31829928452705247</v>
+        <v>3.4210880820541002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -13530,11 +13548,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7204372102550588</v>
+        <v>1.8944895532864936E-2</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51902977392009175</v>
+        <v>3.5890906675116582E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -13543,11 +13561,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20668378741847704</v>
+        <v>0.26146967698006152</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2718187981646207E-2</v>
+        <v>6.8366391980057714E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -13556,11 +13574,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15824927391242583</v>
+        <v>0.59187021094238479</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5042832693809976E-2</v>
+        <v>0.35031034660098309</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -13569,11 +13587,11 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51918684449332753</v>
+        <v>0.51757989909867896</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26955497949493867</v>
+        <v>0.26788895195099871</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -13582,11 +13600,11 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15063463429508439</v>
+        <v>0.71869483623984798</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2690793049213814E-2</v>
+        <v>0.51652226763782194</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -13595,11 +13613,11 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25936041253136655</v>
+        <v>0.26779917636588724</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7267823588440634E-2</v>
+        <v>7.171639886224758E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -13608,11 +13626,11 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20298735131280932</v>
+        <v>0.17129155291068909</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1203864792989868E-2</v>
+        <v>2.9340796098555402E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -13621,11 +13639,11 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87317622433027842</v>
+        <v>0.62268523437973222</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76243671873568075</v>
+        <v>0.38773690111454207</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -13634,11 +13652,11 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85700185449467758</v>
+        <v>0.96094183849798043</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73445217860731649</v>
+        <v>0.92340921697587874</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -13647,11 +13665,11 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49494416337923153</v>
+        <v>0.54737099462954675</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24496972486316743</v>
+        <v>0.29961500576173927</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -13660,11 +13678,11 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13382389661550653</v>
+        <v>0.20365063178349863</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7908835305357782E-2</v>
+        <v>4.147357982581814E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -13673,11 +13691,11 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78367839264504657</v>
+        <v>0.98171960860351137</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61415182309872374</v>
+        <v>0.96377338991663153</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -13686,11 +13704,11 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9173845739539619E-3</v>
+        <v>0.55293299734630486</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>3.676363604436616E-6</v>
+        <v>0.30573489955436878</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -13699,11 +13717,11 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1834265585194278</v>
+        <v>0.19215898556534916</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3645302370281072E-2</v>
+        <v>3.6925075733504065E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -13712,11 +13730,11 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87718657163129021</v>
+        <v>0.82373308783158683</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76945628145025668</v>
+        <v>0.67853619998856074</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -13725,11 +13743,11 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3365357097207603</v>
+        <v>0.94414517435958367</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11325628391725584</v>
+        <v>0.89141011026648864</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -13738,11 +13756,11 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3847193998281464</v>
+        <v>0.6148342664073928</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14800901660412918</v>
+        <v>0.37802117514871686</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -13751,11 +13769,11 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65215354982227636</v>
+        <v>0.14529033820015447</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42530425254579629</v>
+        <v>2.1109282374315263E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -13764,11 +13782,11 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41436441757243814</v>
+        <v>0.77496177876813255</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17169787055014588</v>
+        <v>0.60056575855146799</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -13777,11 +13795,11 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69263158343632669</v>
+        <v>0.5346383715100802</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47973851037351317</v>
+        <v>0.28583818829095053</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -13790,11 +13808,11 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58871740636356384</v>
+        <v>0.54756501780436495</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34658818455544155</v>
+        <v>0.29982744872309453</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -13803,11 +13821,11 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73638149547088938</v>
+        <v>0.54129564808760589</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54225770687194352</v>
+        <v>0.29300097863858127</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -13816,11 +13834,11 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24135020384707284</v>
+        <v>0.87869903351074341</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8249920897023612E-2</v>
+        <v>0.77211199149271459</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -13829,11 +13847,11 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6147571230628367</v>
+        <v>0.97360070272122057</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37792632035649576</v>
+        <v>0.94789832833925447</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -13842,11 +13860,11 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65556704953490696</v>
+        <v>0.94005382375696855</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42976815643590316</v>
+        <v>0.88370119156009774</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -13855,11 +13873,11 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88550910748621625</v>
+        <v>0.37090910975345837</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78412637944103525</v>
+        <v>0.13757356769810303</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -13868,11 +13886,11 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50450440184808953</v>
+        <v>0.47167625616959241</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25452469148409862</v>
+        <v>0.22247849063416297</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -13881,11 +13899,11 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6980611799840237E-2</v>
+        <v>0.84605206260222965</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2795341309367823E-4</v>
+        <v>0.7158040926334871</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -13894,11 +13912,11 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31898917255903469</v>
+        <v>8.3375853528625532E-3</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10175409220989762</v>
+        <v>6.9515329516268182E-5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -13907,11 +13925,11 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35578381999872244</v>
+        <v>0.62141573950945495</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12658212657288334</v>
+        <v>0.38615752131008274</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -13920,11 +13938,11 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49314278924280475</v>
+        <v>0.18457554228618234</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24318981058217334</v>
+        <v>3.4068130810238281E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -13933,11 +13951,11 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87088403110691026</v>
+        <v>0.31813257686763796</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75843899563702188</v>
+        <v>0.10120833646444358</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -13946,11 +13964,11 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9968050102014985E-2</v>
+        <v>0.93193562286449894</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>1.59744502895718E-3</v>
+        <v>0.86850400516384163</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -13959,11 +13977,11 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26378621328686869</v>
+        <v>0.7356437877831199</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9583166320225376E-2</v>
+        <v>0.54117178250389597</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -13972,11 +13990,11 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82223331312889203</v>
+        <v>0.89725536564351638</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67606762121891462</v>
+        <v>0.80506719117608028</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -13985,11 +14003,11 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99984509778899733</v>
+        <v>0.55704710411099112</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99969021957268966</v>
+        <v>0.31030147619844139</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -13998,11 +14016,11 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29902440398152641</v>
+        <v>4.0118705537369626E-2</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9415594176507102E-2</v>
+        <v>1.6095105339941722E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -14011,11 +14029,11 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73764428862858411</v>
+        <v>0.92412351109379187</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54411909654636992</v>
+        <v>0.85400426375631766</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -14024,11 +14042,11 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26405279648006208</v>
+        <v>0.89591913826473402</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9723879328941085E-2</v>
+        <v>0.80267110230902361</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -14037,11 +14055,11 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69630312542383332</v>
+        <v>0.48135691988354057</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48483804247499857</v>
+        <v>0.23170448431976928</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -14050,11 +14068,11 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43798774878045443</v>
+        <v>0.6017616698046051</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19183326808177045</v>
+        <v>0.36211710724602658</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -14063,11 +14081,11 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59321521272337097</v>
+        <v>0.25567089055648007</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35190428860643425</v>
+        <v>6.5367604277943608E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -14076,11 +14094,11 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65648937194570456</v>
+        <v>3.7945723208290594E-2</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43097829547766564</v>
+        <v>1.4398779098002035E-3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -14089,11 +14107,11 @@
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15848047612314853</v>
+        <v>0.84165629887592019</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5116061312219849E-2</v>
+        <v>0.70838532543751231</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -14102,11 +14120,11 @@
       </c>
       <c r="B68">
         <f t="shared" ref="B68:B131" ca="1" si="5">RAND()</f>
-        <v>0.75222549762412738</v>
+        <v>0.18986804465662288</v>
       </c>
       <c r="C68">
         <f t="shared" ref="C68:C131" ca="1" si="6">B68^2</f>
-        <v>0.56584319927586602</v>
+        <v>3.6049874381729338E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -14115,11 +14133,11 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66699418175216518</v>
+        <v>6.6064194818062028E-2</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44488123849124034</v>
+        <v>4.3644778369588541E-3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -14128,11 +14146,11 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28561149777401507</v>
+        <v>0.27825008506442117</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="6"/>
-        <v>8.1573927660716208E-2</v>
+        <v>7.7423109838357623E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -14141,11 +14159,11 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="5"/>
-        <v>3.9873460740703193E-2</v>
+        <v>0.4018643778636608</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5898928714403989E-3</v>
+        <v>0.16149497819574715</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -14154,11 +14172,11 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76777884278403952</v>
+        <v>0.93188561960678473</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58948435142679889</v>
+        <v>0.8684108080299211</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -14167,11 +14185,11 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17928650210752173</v>
+        <v>0.11584941129815163</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2143649837950393E-2</v>
+        <v>1.3421086098128303E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -14180,11 +14198,11 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12491609159717931</v>
+        <v>0.438290223833809</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5604029939914893E-2</v>
+        <v>0.19209832030829038</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -14193,11 +14211,11 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28362389828230672</v>
+        <v>0.32686211261830589</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0442515676852275E-2</v>
+        <v>0.10683884066530208</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -14206,11 +14224,11 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65639390385459528</v>
+        <v>0.9741863041374843</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="6"/>
-        <v>0.43085295701747567</v>
+        <v>0.94903895516905112</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -14219,11 +14237,11 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76172686001345058</v>
+        <v>0.92664437352217155</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58022780926595097</v>
+        <v>0.85866979498029783</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -14232,11 +14250,11 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91645660197441281</v>
+        <v>0.91915534877495986</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83989270330248733</v>
+        <v>0.84484655518161811</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -14245,11 +14263,11 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7918699155746638E-2</v>
+        <v>0.73342128204193924</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4378277456640208E-3</v>
+        <v>0.53790677695204181</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -14258,11 +14276,11 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79051820665131045</v>
+        <v>0.22355551283511232</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="6"/>
-        <v>0.62491903504720403</v>
+        <v>4.9977067318970073E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -14271,11 +14289,11 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="5"/>
-        <v>0.78672004094853054</v>
+        <v>0.87302794840078723</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="6"/>
-        <v>0.61892842283005756</v>
+        <v>0.76217779868888758</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -14284,11 +14302,11 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32480778609797822</v>
+        <v>0.52234208301403195</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10550009790986997</v>
+        <v>0.27284125168743784</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -14297,11 +14315,11 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83698429646011319</v>
+        <v>0.41947338661646316</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>0.70054271252083067</v>
+        <v>0.17595792207948477</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -14310,11 +14328,11 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43260728150093519</v>
+        <v>0.27928923924381543</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18714906000762938</v>
+        <v>7.8002479157389171E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -14323,11 +14341,11 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97655895198931386</v>
+        <v>0.8082965056675866</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>0.95366738671046702</v>
+        <v>0.65334324107443087</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -14336,11 +14354,11 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29027994215713593</v>
+        <v>0.90495330928104822</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>8.4262444818750185E-2</v>
+        <v>0.81894049197872054</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -14349,11 +14367,11 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7847100828180973E-2</v>
+        <v>0.9865969195330182</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1851900797125795E-4</v>
+        <v>0.97337348163204074</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -14362,11 +14380,11 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20800905697671623</v>
+        <v>0.27822812719867884</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3267767784342777E-2</v>
+        <v>7.7410890764484208E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -14375,11 +14393,11 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="5"/>
-        <v>6.8015655590963897E-3</v>
+        <v>0.57287282650518923</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>4.6261294054686182E-5</v>
+        <v>0.32818327534804465</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -14388,11 +14406,11 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16480604740636562</v>
+        <v>0.35774884611427482</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7161033261709232E-2</v>
+        <v>0.12798423689609509</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -14401,11 +14419,11 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="5"/>
-        <v>5.6153232675123399E-2</v>
+        <v>0.56394889091495992</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1531855398665462E-3</v>
+        <v>0.31803835156421334</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -14414,11 +14432,11 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="5"/>
-        <v>0.78664565263990149</v>
+        <v>0.78527344307684854</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>0.61881138281725656</v>
+        <v>0.61665438040176845</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -14427,11 +14445,11 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9305966153037626E-2</v>
+        <v>0.37094836007961107</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5171976213452445E-3</v>
+        <v>0.1376026858457528</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -14440,11 +14458,11 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77151839368318664</v>
+        <v>0.75223506601822532</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>0.59524063179148456</v>
+        <v>0.56585759454744378</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -14453,11 +14471,11 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96814103498779214</v>
+        <v>0.52860775203936461</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>0.93729706362723331</v>
+        <v>0.27942615551611039</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -14466,11 +14484,11 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33332241965117293</v>
+        <v>0.71714200384582538</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>0.11110383544211264</v>
+        <v>0.51429265368000587</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -14479,11 +14497,11 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2190188131309091</v>
+        <v>9.4788471400791829E-3</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7969240505272077E-2</v>
+        <v>8.9848543104987304E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -14492,11 +14510,11 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45811765969283857</v>
+        <v>0.95962684419450273</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20987179012244345</v>
+        <v>0.92088368009870036</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -14505,11 +14523,11 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="5"/>
-        <v>0.87687886585726038</v>
+        <v>0.32119724599161004</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="6"/>
-        <v>0.76891654538711529</v>
+        <v>0.10316767083259484</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -14518,11 +14536,11 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83631524446402816</v>
+        <v>0.80427980660661491</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69942318812292714</v>
+        <v>0.64686600731517385</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -14531,11 +14549,11 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68880930658777195</v>
+        <v>4.2810732464536816E-2</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47445826084192722</v>
+        <v>1.8327588141501465E-3</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -14544,11 +14562,11 @@
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2767117367421559E-2</v>
+        <v>0.46582343381749169</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8290263279188107E-3</v>
+        <v>0.21699147149351908</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -14557,11 +14575,11 @@
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81091888695878789</v>
+        <v>6.2755552828845484E-2</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65758944122647944</v>
+        <v>3.9382594108540161E-3</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -14570,11 +14588,11 @@
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2830830889103596</v>
+        <v>0.96839028720981601</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0136035227030555E-2</v>
+        <v>0.93777974836230993</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -14583,11 +14601,11 @@
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14280287410952208</v>
+        <v>0.39053068624493981</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0392660853940012E-2</v>
+        <v>0.15251421689894362</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -14596,11 +14614,11 @@
       </c>
       <c r="B106">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22337214276613515</v>
+        <v>0.67785668005201372</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9895114163934662E-2</v>
+        <v>0.4594896786911381</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -14609,11 +14627,11 @@
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89912057325192107</v>
+        <v>0.68669385230190227</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="6"/>
-        <v>0.80841780524486317</v>
+        <v>0.47154844678922675</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -14622,11 +14640,11 @@
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="5"/>
-        <v>0.7681047880424644</v>
+        <v>0.87341694147798188</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58998496541375922</v>
+        <v>0.76285715366075246</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -14635,11 +14653,11 @@
       </c>
       <c r="B109">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19403576655198351</v>
+        <v>0.29444142725536182</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7649878701415847E-2</v>
+        <v>8.6695754084174528E-2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -14648,11 +14666,11 @@
       </c>
       <c r="B110">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51195542715374209</v>
+        <v>0.49695319978862307</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26209835939217052</v>
+        <v>0.24696248278015112</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -14661,11 +14679,11 @@
       </c>
       <c r="B111">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82836051781244469</v>
+        <v>0.67080898632519015</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="6"/>
-        <v>0.68618114747050152</v>
+        <v>0.44998469613462916</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -14674,11 +14692,11 @@
       </c>
       <c r="B112">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90011867197626072</v>
+        <v>0.71082465349444268</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81021362364030725</v>
+        <v>0.50527168801549449</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -14687,11 +14705,11 @@
       </c>
       <c r="B113">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1603068610250067E-2</v>
+        <v>0.75324951384514149</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3463120117417041E-4</v>
+        <v>0.56738483010794205</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -14700,11 +14718,11 @@
       </c>
       <c r="B114">
         <f t="shared" ca="1" si="5"/>
-        <v>9.2741367530880692E-2</v>
+        <v>0.92226944533221666</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6009612514978909E-3</v>
+        <v>0.85058092979339461</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -14713,11 +14731,11 @@
       </c>
       <c r="B115">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2866756174699534</v>
+        <v>0.97177862420060701</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="6"/>
-        <v>8.218290965177906E-2</v>
+        <v>0.94435369445322459</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -14726,11 +14744,11 @@
       </c>
       <c r="B116">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25112286711559684</v>
+        <v>4.1496278735105196E-2</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="6"/>
-        <v>6.306269438835771E-2</v>
+        <v>1.7219411488615438E-3</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -14739,11 +14757,11 @@
       </c>
       <c r="B117">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72167163801529433</v>
+        <v>2.8661586881408074E-2</v>
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52080995311567801</v>
+        <v>8.2148656256050346E-4</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -14752,11 +14770,11 @@
       </c>
       <c r="B118">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28551930603639941</v>
+        <v>0.77389027702547308</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="6"/>
-        <v>8.1521274119507103E-2</v>
+        <v>0.5989061608745635</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -14765,11 +14783,11 @@
       </c>
       <c r="B119">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37075089527233029</v>
+        <v>0.68450202160632179</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13745622634523444</v>
+        <v>0.46854301758314143</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -14778,11 +14796,11 @@
       </c>
       <c r="B120">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44133746426674858</v>
+        <v>0.66711884074805861</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19477875736540359</v>
+        <v>0.44504754768103361</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -14791,11 +14809,11 @@
       </c>
       <c r="B121">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85087163778195274</v>
+        <v>0.18454918870863624</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="6"/>
-        <v>0.72398254398174255</v>
+        <v>3.4058403053015829E-2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -14804,11 +14822,11 @@
       </c>
       <c r="B122">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93003177251765501</v>
+        <v>0.20154424120243353</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="6"/>
-        <v>0.86495909789233116</v>
+        <v>4.0620081161864705E-2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -14817,11 +14835,11 @@
       </c>
       <c r="B123">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62318280406707227</v>
+        <v>0.29950855567467438</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38835680728489896</v>
+        <v>8.9705374922329523E-2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -14830,11 +14848,11 @@
       </c>
       <c r="B124">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50092440590063225</v>
+        <v>0.87226905643382457</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="6"/>
-        <v>0.25092526042690139</v>
+        <v>0.76085330681195462</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -14843,11 +14861,11 @@
       </c>
       <c r="B125">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11153602981455757</v>
+        <v>1.3919005302560739E-2</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2440285946793875E-2</v>
+        <v>1.9373870861271396E-4</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -14856,11 +14874,11 @@
       </c>
       <c r="B126">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44764779399730259</v>
+        <v>4.4403619699869834E-2</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20038854747065146</v>
+        <v>1.9716814424506684E-3</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -14869,11 +14887,11 @@
       </c>
       <c r="B127">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8351399490914195E-2</v>
+        <v>0.6485721970782572</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8059697920031135E-3</v>
+        <v>0.4206458948229177</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -14882,11 +14900,11 @@
       </c>
       <c r="B128">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45448450352201197</v>
+        <v>0.15098899219748863</v>
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20655616394164972</v>
+        <v>2.2797675764813282E-2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -14895,11 +14913,11 @@
       </c>
       <c r="B129">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65963156368237297</v>
+        <v>0.39623658021282848</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="6"/>
-        <v>0.43511379980605247</v>
+        <v>0.15700342749875726</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -14908,11 +14926,11 @@
       </c>
       <c r="B130">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97541043210747391</v>
+        <v>0.93368300314631036</v>
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="6"/>
-        <v>0.95142551106408901</v>
+        <v>0.87176395036431298</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -14921,11 +14939,11 @@
       </c>
       <c r="B131">
         <f t="shared" ca="1" si="5"/>
-        <v>8.490983495164095E-2</v>
+        <v>7.0222334047999491E-2</v>
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="6"/>
-        <v>7.2096800715149073E-3</v>
+        <v>4.9311761991488283E-3</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -14934,11 +14952,11 @@
       </c>
       <c r="B132">
         <f t="shared" ref="B132:B195" ca="1" si="7">RAND()</f>
-        <v>0.34040771490960886</v>
+        <v>3.49584761495767E-2</v>
       </c>
       <c r="C132">
         <f t="shared" ref="C132:C195" ca="1" si="8">B132^2</f>
-        <v>0.11587741236998154</v>
+        <v>1.2220950547005231E-3</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -14947,11 +14965,11 @@
       </c>
       <c r="B133">
         <f t="shared" ca="1" si="7"/>
-        <v>0.93836505860126451</v>
+        <v>0.75405822999473104</v>
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="8"/>
-        <v>0.88052898320375461</v>
+        <v>0.56860381422278672</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -14960,11 +14978,11 @@
       </c>
       <c r="B134">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79435033806399435</v>
+        <v>0.18434356020580944</v>
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="8"/>
-        <v>0.63099245958238215</v>
+        <v>3.3982548189352889E-2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -14973,11 +14991,11 @@
       </c>
       <c r="B135">
         <f t="shared" ca="1" si="7"/>
-        <v>0.7176909628713396</v>
+        <v>0.49360090989699512</v>
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="8"/>
-        <v>0.51508031818719058</v>
+        <v>0.24364185825114149</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -14986,11 +15004,11 @@
       </c>
       <c r="B136">
         <f t="shared" ca="1" si="7"/>
-        <v>0.20800437664405325</v>
+        <v>0.58785153802494328</v>
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="8"/>
-        <v>4.3265820703081166E-2</v>
+        <v>0.34556943075829133</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -14999,11 +15017,11 @@
       </c>
       <c r="B137">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5130233345543815E-2</v>
+        <v>0.69979526756166976</v>
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="8"/>
-        <v>7.2471566294667403E-3</v>
+        <v>0.48971341650170896</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -15012,11 +15030,11 @@
       </c>
       <c r="B138">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6623787587149041E-2</v>
+        <v>0.69669209166917234</v>
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="8"/>
-        <v>4.4387290724575545E-3</v>
+        <v>0.48537987059436644</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -15025,11 +15043,11 @@
       </c>
       <c r="B139">
         <f t="shared" ca="1" si="7"/>
-        <v>0.74862880223516615</v>
+        <v>0.34513264811035649</v>
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="8"/>
-        <v>0.56044508353605949</v>
+        <v>0.11911654479166715</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -15038,11 +15056,11 @@
       </c>
       <c r="B140">
         <f t="shared" ca="1" si="7"/>
-        <v>0.88545725210319193</v>
+        <v>1.9996704573441937E-2</v>
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="8"/>
-        <v>0.78403454530213557</v>
+        <v>3.9986819379751368E-4</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -15051,11 +15069,11 @@
       </c>
       <c r="B141">
         <f t="shared" ca="1" si="7"/>
-        <v>0.8882490495690134</v>
+        <v>0.93719341090282482</v>
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="8"/>
-        <v>0.78898637406025562</v>
+        <v>0.8783314894396711</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -15064,11 +15082,11 @@
       </c>
       <c r="B142">
         <f t="shared" ca="1" si="7"/>
-        <v>0.99066955700287462</v>
+        <v>0.14380873669312977</v>
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="8"/>
-        <v>0.98142617117227182</v>
+        <v>2.0680952749273927E-2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -15077,11 +15095,11 @@
       </c>
       <c r="B143">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5904716483011576E-2</v>
+        <v>0.72477598280674327</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="8"/>
-        <v>9.1977146436868322E-3</v>
+        <v>0.52530022525348063</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -15090,11 +15108,11 @@
       </c>
       <c r="B144">
         <f t="shared" ca="1" si="7"/>
-        <v>0.51521877092705393</v>
+        <v>0.47369048596405916</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26545038191558407</v>
+        <v>0.22438267649286653</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -15103,11 +15121,11 @@
       </c>
       <c r="B145">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54924818728093883</v>
+        <v>0.53541818546447673</v>
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30167357123139726</v>
+        <v>0.28667263332607279</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -15116,11 +15134,11 @@
       </c>
       <c r="B146">
         <f t="shared" ca="1" si="7"/>
-        <v>0.46191571640826168</v>
+        <v>0.97736142425085659</v>
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="8"/>
-        <v>0.21336612906495764</v>
+        <v>0.95523535361366285</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -15129,11 +15147,11 @@
       </c>
       <c r="B147">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18925144071115962</v>
+        <v>0.71572293234317175</v>
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="8"/>
-        <v>3.5816107811249567E-2</v>
+        <v>0.51225931588190843</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -15142,11 +15160,11 @@
       </c>
       <c r="B148">
         <f t="shared" ca="1" si="7"/>
-        <v>0.98907434782874115</v>
+        <v>0.97146952333253866</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="8"/>
-        <v>0.97826806553284962</v>
+        <v>0.94375303476394989</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -15155,11 +15173,11 @@
       </c>
       <c r="B149">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54909769524970298</v>
+        <v>0.99438978423477542</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30150827892853571</v>
+        <v>0.98881104299048317</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -15168,11 +15186,11 @@
       </c>
       <c r="B150">
         <f t="shared" ca="1" si="7"/>
-        <v>0.72631774979058961</v>
+        <v>9.599420429923855E-2</v>
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="8"/>
-        <v>0.52753747366086556</v>
+        <v>9.2148872590439492E-3</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -15181,11 +15199,11 @@
       </c>
       <c r="B151">
         <f t="shared" ca="1" si="7"/>
-        <v>0.96939211286809324</v>
+        <v>0.93400733158703242</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="8"/>
-        <v>0.93972106849086601</v>
+        <v>0.87236969545832876</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -15194,11 +15212,11 @@
       </c>
       <c r="B152">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19187299655223888</v>
+        <v>0.4165054689348987</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="8"/>
-        <v>3.6815246805935474E-2</v>
+        <v>0.17347680565267987</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -15207,11 +15225,11 @@
       </c>
       <c r="B153">
         <f t="shared" ca="1" si="7"/>
-        <v>0.6498403044945289</v>
+        <v>0.15839857283170355</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="8"/>
-        <v>0.42229242134554201</v>
+        <v>2.5090107875120494E-2</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -15220,11 +15238,11 @@
       </c>
       <c r="B154">
         <f t="shared" ca="1" si="7"/>
-        <v>0.67643264597890751</v>
+        <v>0.91079043337455168</v>
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="8"/>
-        <v>0.45756112454602604</v>
+        <v>0.82953921352660365</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -15233,11 +15251,11 @@
       </c>
       <c r="B155">
         <f t="shared" ca="1" si="7"/>
-        <v>0.38539100742983101</v>
+        <v>7.4299535383864801E-2</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="8"/>
-        <v>0.14852622860778006</v>
+        <v>5.5204209582581775E-3</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -15246,11 +15264,11 @@
       </c>
       <c r="B156">
         <f t="shared" ca="1" si="7"/>
-        <v>0.98708073760575354</v>
+        <v>0.10266735030560414</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="8"/>
-        <v>0.97432838255231846</v>
+        <v>1.0540584818773636E-2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -15259,11 +15277,11 @@
       </c>
       <c r="B157">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32370028826842989</v>
+        <v>0.86082904323023102</v>
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="8"/>
-        <v>0.10478187662506461</v>
+        <v>0.74102664166867493</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -15272,11 +15290,11 @@
       </c>
       <c r="B158">
         <f t="shared" ca="1" si="7"/>
-        <v>0.97865684800581343</v>
+        <v>0.79997271499011702</v>
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="8"/>
-        <v>0.95776922614867377</v>
+        <v>0.63995634472865903</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -15285,11 +15303,11 @@
       </c>
       <c r="B159">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1849115575109148E-2</v>
+        <v>0.42550214431716338</v>
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4040153991229419E-4</v>
+        <v>0.18105207481850413</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -15298,11 +15316,11 @@
       </c>
       <c r="B160">
         <f t="shared" ca="1" si="7"/>
-        <v>0.44226850680954</v>
+        <v>0.62335239322220803</v>
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="8"/>
-        <v>0.19560143211554012</v>
+        <v>0.38856820613585424</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -15311,11 +15329,11 @@
       </c>
       <c r="B161">
         <f t="shared" ca="1" si="7"/>
-        <v>0.67210185667352951</v>
+        <v>0.53730292678653779</v>
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="8"/>
-        <v>0.45172090574400559</v>
+        <v>0.28869443513337961</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -15324,11 +15342,11 @@
       </c>
       <c r="B162">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79464066770049469</v>
+        <v>0.69369532151843583</v>
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="8"/>
-        <v>0.63145379076348807</v>
+        <v>0.48121319909656607</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -15337,11 +15355,11 @@
       </c>
       <c r="B163">
         <f t="shared" ca="1" si="7"/>
-        <v>0.2163443988740158</v>
+        <v>0.82502103785631387</v>
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="8"/>
-        <v>4.6804898924159247E-2</v>
+        <v>0.68065971290550931</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -15350,11 +15368,11 @@
       </c>
       <c r="B164">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5880649373329363E-2</v>
+        <v>0.72272760284956905</v>
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1050339869183882E-3</v>
+        <v>0.52233518792068445</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -15363,11 +15381,11 @@
       </c>
       <c r="B165">
         <f t="shared" ca="1" si="7"/>
-        <v>0.11182793637981703</v>
+        <v>0.10922494985341524</v>
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2505487354968405E-2</v>
+        <v>1.1930089670481075E-2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -15376,11 +15394,11 @@
       </c>
       <c r="B166">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19627253360036034</v>
+        <v>1.9021644112930169E-2</v>
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="8"/>
-        <v>3.8522907445904579E-2</v>
+        <v>3.6182294475897096E-4</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -15389,11 +15407,11 @@
       </c>
       <c r="B167">
         <f t="shared" ca="1" si="7"/>
-        <v>0.64940998471563738</v>
+        <v>0.45906286230269089</v>
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="8"/>
-        <v>0.42173332824836435</v>
+        <v>0.21073871154553933</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -15402,11 +15420,11 @@
       </c>
       <c r="B168">
         <f t="shared" ca="1" si="7"/>
-        <v>0.6234346995622696</v>
+        <v>0.13841177395379134</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="8"/>
-        <v>0.38867082461829738</v>
+        <v>1.9157819169035431E-2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -15415,11 +15433,11 @@
       </c>
       <c r="B169">
         <f t="shared" ca="1" si="7"/>
-        <v>0.95767758960244986</v>
+        <v>0.90696045989678475</v>
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="8"/>
-        <v>0.91714636562675844</v>
+        <v>0.82257727581618734</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -15428,11 +15446,11 @@
       </c>
       <c r="B170">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2698056941402505E-2</v>
+        <v>0.99921543424879666</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7770852053993007E-3</v>
+        <v>0.99843148404101134</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -15441,11 +15459,11 @@
       </c>
       <c r="B171">
         <f t="shared" ca="1" si="7"/>
-        <v>0.78750968517581632</v>
+        <v>0.33570262963980202</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="8"/>
-        <v>0.62017150424571332</v>
+        <v>0.11269625554707809</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -15454,11 +15472,11 @@
       </c>
       <c r="B172">
         <f t="shared" ca="1" si="7"/>
-        <v>0.82455628892642652</v>
+        <v>0.20963851876147577</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="8"/>
-        <v>0.67989307360812057</v>
+        <v>4.3948308548505628E-2</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -15467,11 +15485,11 @@
       </c>
       <c r="B173">
         <f t="shared" ca="1" si="7"/>
-        <v>0.51111892426015093</v>
+        <v>0.90211433731322066</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26124255473685393</v>
+        <v>0.81381027758607127</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -15480,11 +15498,11 @@
       </c>
       <c r="B174">
         <f t="shared" ca="1" si="7"/>
-        <v>0.82578498376062692</v>
+        <v>0.77396241255011033</v>
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68192083940453885</v>
+        <v>0.59901781604038717</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -15493,11 +15511,11 @@
       </c>
       <c r="B175">
         <f t="shared" ca="1" si="7"/>
-        <v>0.31900012175791825</v>
+        <v>0.23581171986936844</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="8"/>
-        <v>0.10176107768156667</v>
+        <v>5.5607167227749492E-2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -15506,11 +15524,11 @@
       </c>
       <c r="B176">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79346258028137873</v>
+        <v>0.41917920876350934</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="8"/>
-        <v>0.6295828663067834</v>
+        <v>0.17571120905960175</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -15519,11 +15537,11 @@
       </c>
       <c r="B177">
         <f t="shared" ca="1" si="7"/>
-        <v>0.26520151168125217</v>
+        <v>0.39619666922412056</v>
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="8"/>
-        <v>7.0331841798021336E-2</v>
+        <v>0.15697180070428721</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -15532,11 +15550,11 @@
       </c>
       <c r="B178">
         <f t="shared" ca="1" si="7"/>
-        <v>0.89643956660368118</v>
+        <v>0.3776248742635363</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="8"/>
-        <v>0.80360389657259579</v>
+        <v>0.14260054566255159</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -15545,11 +15563,11 @@
       </c>
       <c r="B179">
         <f t="shared" ca="1" si="7"/>
-        <v>8.4323970100750767E-2</v>
+        <v>0.52201791031960532</v>
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="8"/>
-        <v>7.110531933552309E-3</v>
+        <v>0.27250269869444749</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -15558,11 +15576,11 @@
       </c>
       <c r="B180">
         <f t="shared" ca="1" si="7"/>
-        <v>0.67930705332023233</v>
+        <v>0.36783732336919861</v>
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46145807269061695</v>
+        <v>0.13530429646341638</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -15571,11 +15589,11 @@
       </c>
       <c r="B181">
         <f t="shared" ca="1" si="7"/>
-        <v>0.69029050972927741</v>
+        <v>0.99081985926586003</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="8"/>
-        <v>0.47650098782230565</v>
+        <v>0.98172399351561868</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -15584,11 +15602,11 @@
       </c>
       <c r="B182">
         <f t="shared" ca="1" si="7"/>
-        <v>0.29439091045142129</v>
+        <v>0.44453451700213276</v>
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="8"/>
-        <v>8.6666008156416757E-2</v>
+        <v>0.19761093680631947</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -15597,11 +15615,11 @@
       </c>
       <c r="B183">
         <f t="shared" ca="1" si="7"/>
-        <v>0.50010515264930089</v>
+        <v>0.37527086074830551</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="8"/>
-        <v>0.25010516370638053</v>
+        <v>0.14082821892677411</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -15610,11 +15628,11 @@
       </c>
       <c r="B184">
         <f t="shared" ca="1" si="7"/>
-        <v>0.48874563270619897</v>
+        <v>0.17395593450875213</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="8"/>
-        <v>0.23887229348938274</v>
+        <v>3.0260667150813259E-2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -15623,11 +15641,11 @@
       </c>
       <c r="B185">
         <f t="shared" ca="1" si="7"/>
-        <v>0.39577838394165465</v>
+        <v>4.3756838801653486E-2</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="8"/>
-        <v>0.15664052919546781</v>
+        <v>1.9146609419138881E-3</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -15636,11 +15654,11 @@
       </c>
       <c r="B186">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3626312850487412</v>
+        <v>0.26027276329076277</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="8"/>
-        <v>0.13150144889610141</v>
+        <v>6.7741911311009428E-2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -15649,11 +15667,11 @@
       </c>
       <c r="B187">
         <f t="shared" ca="1" si="7"/>
-        <v>0.93803194204519846</v>
+        <v>1.6649041554303912E-2</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="8"/>
-        <v>0.87990392429708653</v>
+        <v>2.771905846769384E-4</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -15662,11 +15680,11 @@
       </c>
       <c r="B188">
         <f t="shared" ca="1" si="7"/>
-        <v>0.86665957006120653</v>
+        <v>0.96871205800652749</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="8"/>
-        <v>0.75109881037867532</v>
+        <v>0.93840305132724189</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -15675,11 +15693,11 @@
       </c>
       <c r="B189">
         <f t="shared" ca="1" si="7"/>
-        <v>0.41254812769548721</v>
+        <v>0.53994470723382382</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17019595766505202</v>
+        <v>0.2915402868698197</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -15688,11 +15706,11 @@
       </c>
       <c r="B190">
         <f t="shared" ca="1" si="7"/>
-        <v>0.86614772850563604</v>
+        <v>0.8670231189373474</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="8"/>
-        <v>0.75021188759547297</v>
+        <v>0.75172908877184563</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -15701,11 +15719,11 @@
       </c>
       <c r="B191">
         <f t="shared" ca="1" si="7"/>
-        <v>0.20248651774085658</v>
+        <v>0.27084335601418874</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="8"/>
-        <v>4.1000789866818224E-2</v>
+        <v>7.3356123497028594E-2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -15714,11 +15732,11 @@
       </c>
       <c r="B192">
         <f t="shared" ca="1" si="7"/>
-        <v>0.4373204754345924</v>
+        <v>0.49208946301053147</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="8"/>
-        <v>0.19124919823433795</v>
+        <v>0.24215203960599321</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -15727,11 +15745,11 @@
       </c>
       <c r="B193">
         <f t="shared" ca="1" si="7"/>
-        <v>0.38951582972495691</v>
+        <v>0.69358148303884393</v>
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="8"/>
-        <v>0.15172258160632163</v>
+        <v>0.48105527361436212</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -15740,11 +15758,11 @@
       </c>
       <c r="B194">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17140076331900922</v>
+        <v>0.11419788023285005</v>
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="8"/>
-        <v>2.9378221666339015E-2</v>
+        <v>1.3041155849676363E-2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -15753,11 +15771,11 @@
       </c>
       <c r="B195">
         <f t="shared" ca="1" si="7"/>
-        <v>0.21985326995234622</v>
+        <v>7.3914170148958735E-2</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="8"/>
-        <v>4.8335460308739218E-2</v>
+        <v>5.4633045488092224E-3</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -15766,11 +15784,11 @@
       </c>
       <c r="B196">
         <f t="shared" ref="B196:B202" ca="1" si="9">RAND()</f>
-        <v>0.91713015398952991</v>
+        <v>0.26567059171828389</v>
       </c>
       <c r="C196">
         <f t="shared" ref="C196:C202" ca="1" si="10">B196^2</f>
-        <v>0.84112771935685882</v>
+        <v>7.0580863303943087E-2</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -15779,11 +15797,11 @@
       </c>
       <c r="B197">
         <f t="shared" ca="1" si="9"/>
-        <v>0.5276485637319861</v>
+        <v>0.17973578875178464</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="10"/>
-        <v>0.27841300680842779</v>
+        <v>3.2304953758226153E-2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -15792,11 +15810,11 @@
       </c>
       <c r="B198">
         <f t="shared" ca="1" si="9"/>
-        <v>0.9087995485053344</v>
+        <v>0.68001784681212984</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="10"/>
-        <v>0.82591661936349969</v>
+        <v>0.46242427198300529</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -15805,11 +15823,11 @@
       </c>
       <c r="B199">
         <f t="shared" ca="1" si="9"/>
-        <v>0.94302080072730099</v>
+        <v>0.70901014463867529</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="10"/>
-        <v>0.88928823060435991</v>
+        <v>0.50269538520055523</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -15818,11 +15836,11 @@
       </c>
       <c r="B200">
         <f t="shared" ca="1" si="9"/>
-        <v>0.66080541982244312</v>
+        <v>0.51262344534000837</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4366638028667153</v>
+        <v>0.26278279671226057</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -15831,11 +15849,11 @@
       </c>
       <c r="B201">
         <f t="shared" ca="1" si="9"/>
-        <v>0.58010866921691318</v>
+        <v>0.12538870981903938</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="10"/>
-        <v>0.33652606810061797</v>
+        <v>1.5722328550083261E-2</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -15844,11 +15862,11 @@
       </c>
       <c r="B202">
         <f t="shared" ca="1" si="9"/>
-        <v>0.74025688110935639</v>
+        <v>0.45286329580264295</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="10"/>
-        <v>0.54798025002975181</v>
+        <v>0.20508516468523208</v>
       </c>
     </row>
   </sheetData>
@@ -15858,13 +15876,319 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B4:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f>B5^3</f>
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>E5^2+F5^2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <f>C5</f>
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <f t="dataTable" ref="C9:C29" dt2D="0" dtr="0" r1="B5"/>
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <f>G5</f>
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>-2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>-0.9</v>
+      </c>
+      <c r="C10">
+        <v>-0.72900000000000009</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <f t="dataTable" ref="F10:K12" dt2D="1" dtr="1" r1="F5" r2="E5"/>
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>37</v>
+      </c>
+      <c r="K10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>-0.8</v>
+      </c>
+      <c r="C11">
+        <v>-0.51200000000000012</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>36</v>
+      </c>
+      <c r="K11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>-0.7</v>
+      </c>
+      <c r="C12">
+        <v>-0.34299999999999992</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>37</v>
+      </c>
+      <c r="K12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>-0.6</v>
+      </c>
+      <c r="C13">
+        <v>-0.216</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>-0.5</v>
+      </c>
+      <c r="C14">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>-0.4</v>
+      </c>
+      <c r="C15">
+        <v>-6.4000000000000015E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>-0.3</v>
+      </c>
+      <c r="C16">
+        <v>-2.7E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>-0.2</v>
+      </c>
+      <c r="C17">
+        <v>-8.0000000000000019E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>-0.1</v>
+      </c>
+      <c r="C18">
+        <v>-1.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20">
+        <v>1.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>8.0000000000000019E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.3</v>
+      </c>
+      <c r="C22">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.4</v>
+      </c>
+      <c r="C23">
+        <v>6.4000000000000015E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="C24">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.6</v>
+      </c>
+      <c r="C25">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.7</v>
+      </c>
+      <c r="C26">
+        <v>0.34299999999999992</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.8</v>
+      </c>
+      <c r="C27">
+        <v>0.51200000000000012</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.9</v>
+      </c>
+      <c r="C28">
+        <v>0.72900000000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tercero/Estadistica/Oscar/Resumen.xlsx
+++ b/Tercero/Estadistica/Oscar/Resumen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -6860,604 +6860,604 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>0.77959812057972211</c:v>
+                  <c:v>0.43171791273338633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67480516665949319</c:v>
+                  <c:v>0.37427554382085426</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79147825899500523</c:v>
+                  <c:v>0.69155329719172598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54654065878107749</c:v>
+                  <c:v>0.75115894678053807</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22923350353566307</c:v>
+                  <c:v>0.15638828809704219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99799268945893671</c:v>
+                  <c:v>0.46204238761294103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51884950786550377</c:v>
+                  <c:v>0.30299398694483537</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63167669258201686</c:v>
+                  <c:v>0.4665146438583706</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1726205933205622E-2</c:v>
+                  <c:v>0.70442359000922028</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36853256098477016</c:v>
+                  <c:v>0.91473935768816106</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.84979139661131553</c:v>
+                  <c:v>0.74255122078522073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8870981776529232</c:v>
+                  <c:v>0.50742883240758951</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85544375223450064</c:v>
+                  <c:v>0.43847015682417223</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.69688362818778848</c:v>
+                  <c:v>0.97979332046599621</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47846901687022447</c:v>
+                  <c:v>0.69779930770061949</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.78329287777805501</c:v>
+                  <c:v>0.48579327262956473</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.58569003186085045</c:v>
+                  <c:v>0.940896282682676</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.32544936435547178</c:v>
+                  <c:v>0.26332427885955179</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.75486247722658617</c:v>
+                  <c:v>0.99014840251318281</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13996115312500135</c:v>
+                  <c:v>0.98516316335483267</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1849618361190789</c:v>
+                  <c:v>0.98175443219519876</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.8944895532864936E-2</c:v>
+                  <c:v>0.64998828789625984</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.26146967698006152</c:v>
+                  <c:v>0.28779903197322831</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.59187021094238479</c:v>
+                  <c:v>0.68433698070002202</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.51757989909867896</c:v>
+                  <c:v>0.23786948274552189</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.71869483623984798</c:v>
+                  <c:v>0.75256011016097879</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.26779917636588724</c:v>
+                  <c:v>0.36689939097179358</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.17129155291068909</c:v>
+                  <c:v>0.31624586312195313</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.62268523437973222</c:v>
+                  <c:v>0.91312837098792365</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.96094183849798043</c:v>
+                  <c:v>0.83750758766014044</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.54737099462954675</c:v>
+                  <c:v>0.40973893242463455</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.20365063178349863</c:v>
+                  <c:v>0.66191855725954396</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.98171960860351137</c:v>
+                  <c:v>2.058653688793266E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.55293299734630486</c:v>
+                  <c:v>7.8726846333079581E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.19215898556534916</c:v>
+                  <c:v>0.37576025099747268</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.82373308783158683</c:v>
+                  <c:v>0.14456396789634707</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.94414517435958367</c:v>
+                  <c:v>4.9047109371999076E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.6148342664073928</c:v>
+                  <c:v>5.6278836000328569E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.14529033820015447</c:v>
+                  <c:v>0.51782693929012613</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.77496177876813255</c:v>
+                  <c:v>0.23128213271156772</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.5346383715100802</c:v>
+                  <c:v>0.56194680486550042</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.54756501780436495</c:v>
+                  <c:v>0.71321694489108534</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.54129564808760589</c:v>
+                  <c:v>0.68823745928631719</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.87869903351074341</c:v>
+                  <c:v>0.61713228288699795</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.97360070272122057</c:v>
+                  <c:v>3.229323753266522E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.94005382375696855</c:v>
+                  <c:v>0.14769001570865692</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.37090910975345837</c:v>
+                  <c:v>0.70457971129326269</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.47167625616959241</c:v>
+                  <c:v>0.66336242487637809</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.84605206260222965</c:v>
+                  <c:v>0.18589793039912716</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.3375853528625532E-3</c:v>
+                  <c:v>0.57296605079609109</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.62141573950945495</c:v>
+                  <c:v>0.18558545479051514</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.18457554228618234</c:v>
+                  <c:v>0.61938695386547515</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.31813257686763796</c:v>
+                  <c:v>0.6626755928617114</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.93193562286449894</c:v>
+                  <c:v>0.58521133171199624</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.7356437877831199</c:v>
+                  <c:v>0.56228022687116641</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.89725536564351638</c:v>
+                  <c:v>0.72721258477276751</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.55704710411099112</c:v>
+                  <c:v>0.2515459634840761</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.0118705537369626E-2</c:v>
+                  <c:v>0.94629462741807235</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.92412351109379187</c:v>
+                  <c:v>0.94314706695612793</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.89591913826473402</c:v>
+                  <c:v>0.96144610316358148</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.48135691988354057</c:v>
+                  <c:v>7.2461601023788735E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.6017616698046051</c:v>
+                  <c:v>0.15760281192378423</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.25567089055648007</c:v>
+                  <c:v>0.33512656504303806</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.7945723208290594E-2</c:v>
+                  <c:v>0.14801332032462233</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.84165629887592019</c:v>
+                  <c:v>0.78832125778945961</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.18986804465662288</c:v>
+                  <c:v>0.81586004633072684</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.6064194818062028E-2</c:v>
+                  <c:v>0.58816584043236897</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.27825008506442117</c:v>
+                  <c:v>0.12685678092794495</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.4018643778636608</c:v>
+                  <c:v>0.14754234564831437</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.93188561960678473</c:v>
+                  <c:v>0.19688316726108324</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.11584941129815163</c:v>
+                  <c:v>0.84332241500261707</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.438290223833809</c:v>
+                  <c:v>0.16687967757380251</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.32686211261830589</c:v>
+                  <c:v>0.65583557612972521</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.9741863041374843</c:v>
+                  <c:v>8.0441857249505144E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.92664437352217155</c:v>
+                  <c:v>0.41327785725217048</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.91915534877495986</c:v>
+                  <c:v>8.5796675563467151E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.73342128204193924</c:v>
+                  <c:v>0.87678546685778147</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.22355551283511232</c:v>
+                  <c:v>0.5449655517172195</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.87302794840078723</c:v>
+                  <c:v>0.6094827738542643</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.52234208301403195</c:v>
+                  <c:v>0.26398797743234514</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.41947338661646316</c:v>
+                  <c:v>0.7671194032738472</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.27928923924381543</c:v>
+                  <c:v>7.262101657560216E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.8082965056675866</c:v>
+                  <c:v>0.33049219485934223</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.90495330928104822</c:v>
+                  <c:v>0.42820816839708919</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.9865969195330182</c:v>
+                  <c:v>0.4904144458845201</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.27822812719867884</c:v>
+                  <c:v>0.15702555910359728</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.57287282650518923</c:v>
+                  <c:v>0.39170133071875279</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.35774884611427482</c:v>
+                  <c:v>0.83951599942907551</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.56394889091495992</c:v>
+                  <c:v>0.38171862062986961</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.78527344307684854</c:v>
+                  <c:v>8.0105945660551181E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.37094836007961107</c:v>
+                  <c:v>0.69122475548295537</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.75223506601822532</c:v>
+                  <c:v>0.6378014771221302</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.52860775203936461</c:v>
+                  <c:v>0.91241533420108123</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.71714200384582538</c:v>
+                  <c:v>0.75716319061076653</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.4788471400791829E-3</c:v>
+                  <c:v>0.17794129089679322</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.95962684419450273</c:v>
+                  <c:v>0.76075378411319139</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.32119724599161004</c:v>
+                  <c:v>0.29485205349256183</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.80427980660661491</c:v>
+                  <c:v>0.2999022863383749</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.2810732464536816E-2</c:v>
+                  <c:v>9.6094234873900231E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.46582343381749169</c:v>
+                  <c:v>1.6259909329512712E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.2755552828845484E-2</c:v>
+                  <c:v>0.79239359671623799</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.96839028720981601</c:v>
+                  <c:v>0.28908159556343238</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.39053068624493981</c:v>
+                  <c:v>0.8288822978786724</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.67785668005201372</c:v>
+                  <c:v>0.78051066995767293</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.68669385230190227</c:v>
+                  <c:v>0.45302387356259677</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.87341694147798188</c:v>
+                  <c:v>0.78484267072523561</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.29444142725536182</c:v>
+                  <c:v>0.67619589093130816</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.49695319978862307</c:v>
+                  <c:v>0.76843386751319143</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.67080898632519015</c:v>
+                  <c:v>0.93385061197377184</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.71082465349444268</c:v>
+                  <c:v>0.75090072886997739</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.75324951384514149</c:v>
+                  <c:v>0.95563365153126556</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.92226944533221666</c:v>
+                  <c:v>5.5720561939069158E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.97177862420060701</c:v>
+                  <c:v>0.3665353742807812</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4.1496278735105196E-2</c:v>
+                  <c:v>0.52820849215251897</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.8661586881408074E-2</c:v>
+                  <c:v>0.77951249381182619</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.77389027702547308</c:v>
+                  <c:v>0.103394431302122</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.68450202160632179</c:v>
+                  <c:v>0.77491639074529861</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.66711884074805861</c:v>
+                  <c:v>0.82595256799388905</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.18454918870863624</c:v>
+                  <c:v>0.70403580776748576</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.20154424120243353</c:v>
+                  <c:v>0.23235341649500396</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.29950855567467438</c:v>
+                  <c:v>0.28993364378402153</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.87226905643382457</c:v>
+                  <c:v>0.98235401594569549</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.3919005302560739E-2</c:v>
+                  <c:v>3.4625579862983979E-2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>4.4403619699869834E-2</c:v>
+                  <c:v>9.6667473645440594E-2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.6485721970782572</c:v>
+                  <c:v>0.28383130415143709</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.15098899219748863</c:v>
+                  <c:v>0.41326390101458543</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.39623658021282848</c:v>
+                  <c:v>4.5801265501277943E-2</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.93368300314631036</c:v>
+                  <c:v>0.77656768753357652</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>7.0222334047999491E-2</c:v>
+                  <c:v>0.27070287824763661</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.49584761495767E-2</c:v>
+                  <c:v>6.4823245494308179E-2</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.75405822999473104</c:v>
+                  <c:v>0.86344772324689167</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.18434356020580944</c:v>
+                  <c:v>0.49670614200979157</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.49360090989699512</c:v>
+                  <c:v>0.65589425444229199</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.58785153802494328</c:v>
+                  <c:v>0.60124758328705796</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.69979526756166976</c:v>
+                  <c:v>0.31895933796247389</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.69669209166917234</c:v>
+                  <c:v>0.83950702078697614</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.34513264811035649</c:v>
+                  <c:v>0.58907539439811329</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.9996704573441937E-2</c:v>
+                  <c:v>0.44751854635448063</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.93719341090282482</c:v>
+                  <c:v>0.21059205926028168</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.14380873669312977</c:v>
+                  <c:v>0.42264780019625814</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.72477598280674327</c:v>
+                  <c:v>0.74124032405362661</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.47369048596405916</c:v>
+                  <c:v>0.39102172067255903</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.53541818546447673</c:v>
+                  <c:v>0.45436543040099697</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.97736142425085659</c:v>
+                  <c:v>9.2753167322317198E-2</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.71572293234317175</c:v>
+                  <c:v>0.68991749422768422</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.97146952333253866</c:v>
+                  <c:v>2.7377272810349962E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.99438978423477542</c:v>
+                  <c:v>0.38391897446987699</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>9.599420429923855E-2</c:v>
+                  <c:v>0.19295057891636735</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.93400733158703242</c:v>
+                  <c:v>0.77165939776945636</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.4165054689348987</c:v>
+                  <c:v>0.65822216816578205</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.15839857283170355</c:v>
+                  <c:v>0.39358892110224108</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.91079043337455168</c:v>
+                  <c:v>0.30220319940995821</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>7.4299535383864801E-2</c:v>
+                  <c:v>0.15547863627346203</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.10266735030560414</c:v>
+                  <c:v>0.16185005536319264</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.86082904323023102</c:v>
+                  <c:v>0.77658840019750519</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.79997271499011702</c:v>
+                  <c:v>0.85400716693252399</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.42550214431716338</c:v>
+                  <c:v>0.18412543159143013</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.62335239322220803</c:v>
+                  <c:v>0.91065034506628506</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.53730292678653779</c:v>
+                  <c:v>0.71607813696144118</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.69369532151843583</c:v>
+                  <c:v>0.82183581366901071</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.82502103785631387</c:v>
+                  <c:v>0.61410511559306702</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.72272760284956905</c:v>
+                  <c:v>9.4727924218557691E-2</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.10922494985341524</c:v>
+                  <c:v>0.45971621975807386</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1.9021644112930169E-2</c:v>
+                  <c:v>0.23421386821138912</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.45906286230269089</c:v>
+                  <c:v>0.85843062459319064</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.13841177395379134</c:v>
+                  <c:v>0.55694615418080717</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.90696045989678475</c:v>
+                  <c:v>0.5994858582307161</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.99921543424879666</c:v>
+                  <c:v>0.91419999610869562</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.33570262963980202</c:v>
+                  <c:v>0.72331466673261491</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.20963851876147577</c:v>
+                  <c:v>0.32414453130341336</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.90211433731322066</c:v>
+                  <c:v>0.57845595663443472</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.77396241255011033</c:v>
+                  <c:v>0.73348859690294277</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.23581171986936844</c:v>
+                  <c:v>0.52684298812826713</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.41917920876350934</c:v>
+                  <c:v>0.18834047188765957</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.39619666922412056</c:v>
+                  <c:v>0.6305863598676984</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.3776248742635363</c:v>
+                  <c:v>4.8570690418991425E-2</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.52201791031960532</c:v>
+                  <c:v>0.4123865451329084</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.36783732336919861</c:v>
+                  <c:v>0.98752567614409625</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.99081985926586003</c:v>
+                  <c:v>0.77384389365250894</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.44453451700213276</c:v>
+                  <c:v>0.27597578802141509</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.37527086074830551</c:v>
+                  <c:v>0.15761597970697205</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.17395593450875213</c:v>
+                  <c:v>0.54902264290596126</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.3756838801653486E-2</c:v>
+                  <c:v>0.14597349172120522</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.26027276329076277</c:v>
+                  <c:v>0.60569313249942502</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1.6649041554303912E-2</c:v>
+                  <c:v>0.3002629004779771</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.96871205800652749</c:v>
+                  <c:v>0.33327379412278313</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.53994470723382382</c:v>
+                  <c:v>0.8610551136510346</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.8670231189373474</c:v>
+                  <c:v>0.37953536958574019</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.27084335601418874</c:v>
+                  <c:v>0.1967034253437161</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.49208946301053147</c:v>
+                  <c:v>0.69121409258785527</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.69358148303884393</c:v>
+                  <c:v>0.71671648925439291</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.11419788023285005</c:v>
+                  <c:v>0.21179772297178379</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>7.3914170148958735E-2</c:v>
+                  <c:v>0.7780793191006864</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.26567059171828389</c:v>
+                  <c:v>0.40417699857155842</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.17973578875178464</c:v>
+                  <c:v>0.24939462228945863</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.68001784681212984</c:v>
+                  <c:v>0.48768435705232682</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.70901014463867529</c:v>
+                  <c:v>0.38723741320104876</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.51262344534000837</c:v>
+                  <c:v>0.98957790427348857</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.12538870981903938</c:v>
+                  <c:v>0.93047436027575625</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.45286329580264295</c:v>
+                  <c:v>0.85209820573771267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7767,604 +7767,604 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>0.60777322961143498</c:v>
+                  <c:v>0.18638035617487178</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4553620129503464</c:v>
+                  <c:v>0.1400821827023962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6264378344617646</c:v>
+                  <c:v>0.4782459628567477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29870669170085418</c:v>
+                  <c:v>0.56423976332844727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2547999143234853E-2</c:v>
+                  <c:v>2.4457296653923471E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9959894082134817</c:v>
+                  <c:v>0.21348316795106725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26920481181227546</c:v>
+                  <c:v>9.1805356124727067E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39901544395135585</c:v>
+                  <c:v>0.21763591293430237</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7202802425205917E-4</c:v>
+                  <c:v>0.49621259416147806</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13581624850599333</c:v>
+                  <c:v>0.83674809250374949</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72214541775461016</c:v>
+                  <c:v>0.55138231548962158</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78694317679513726</c:v>
+                  <c:v>0.25748401995852954</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.73178401323704168</c:v>
+                  <c:v>0.1922560784254142</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.48564679123617582</c:v>
+                  <c:v>0.95999495082978237</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.22893260010475916</c:v>
+                  <c:v>0.48692387382746383</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.613547732377827</c:v>
+                  <c:v>0.23599510373214261</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.34303281342116398</c:v>
+                  <c:v>0.88528581476607815</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10591728875938063</c:v>
+                  <c:v>6.9339675836902995E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.56981735952465828</c:v>
+                  <c:v>0.9803938589994079</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9589124384080073E-2</c:v>
+                  <c:v>0.97054645843130072</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4210880820541002E-2</c:v>
+                  <c:v>0.96384176513491715</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.5890906675116582E-4</c:v>
+                  <c:v>0.42248477440231119</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.8366391980057714E-2</c:v>
+                  <c:v>8.2828282804727288E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.35031034660098309</c:v>
+                  <c:v>0.46831710315362229</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.26788895195099871</c:v>
+                  <c:v>5.6581890821622134E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.51652226763782194</c:v>
+                  <c:v>0.56634671940550452</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.171639886224758E-2</c:v>
+                  <c:v>0.13461516309547306</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.9340796098555402E-2</c:v>
+                  <c:v>0.10001144594174911</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.38773690111454207</c:v>
+                  <c:v>0.83380342190305912</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92340921697587874</c:v>
+                  <c:v>0.70141895938830778</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.29961500576173927</c:v>
+                  <c:v>0.16788599274447924</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.147357982581814E-2</c:v>
+                  <c:v>0.43813617644455616</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.96377338991663153</c:v>
+                  <c:v>4.2380550103821214E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.30573489955436878</c:v>
+                  <c:v>6.1979163335523259E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.6925075733504065E-2</c:v>
+                  <c:v>0.14119576622968366</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.67853619998856074</c:v>
+                  <c:v>2.0898740813936067E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.89141011026648864</c:v>
+                  <c:v>2.4056189377488397E-5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.37802117514871686</c:v>
+                  <c:v>3.1673073815518788E-5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.1109282374315263E-2</c:v>
+                  <c:v>0.26814473905457997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.60056575855146799</c:v>
+                  <c:v>5.3491424911611227E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.28583818829095053</c:v>
+                  <c:v>0.3157842114985448</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.29982744872309453</c:v>
+                  <c:v>0.50867841047977347</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.29300097863858127</c:v>
+                  <c:v>0.47367080036488513</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.77211199149271459</c:v>
+                  <c:v>0.38085225458131766</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.94789832833925447</c:v>
+                  <c:v>1.0428531903411377E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.88370119156009774</c:v>
+                  <c:v>2.1812340740023327E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.13757356769810303</c:v>
+                  <c:v>0.49643256956609738</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.22247849063416297</c:v>
+                  <c:v>0.44004970673786836</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.7158040926334871</c:v>
+                  <c:v>3.4558040526678727E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.9515329516268182E-5</c:v>
+                  <c:v>0.32829009536486881</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.38615752131008274</c:v>
+                  <c:v>3.4441961029802334E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.4068130810238281E-2</c:v>
+                  <c:v>0.38364019861875226</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.10120833646444358</c:v>
+                  <c:v>0.43913894137462067</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.86850400516384163</c:v>
+                  <c:v>0.3424723027641281</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.54117178250389597</c:v>
+                  <c:v>0.31615905353029039</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.80506719117608028</c:v>
+                  <c:v>0.52883814345188962</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.31030147619844139</c:v>
+                  <c:v>6.3275371745132147E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.6095105339941722E-3</c:v>
+                  <c:v>0.89547352188030838</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.85400426375631766</c:v>
+                  <c:v>0.88952638990794686</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.80267110230902361</c:v>
+                  <c:v>0.92437860928843618</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.23170448431976928</c:v>
+                  <c:v>5.2506836229307408E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.36211710724602658</c:v>
+                  <c:v>2.4838646326283704E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.5367604277943608E-2</c:v>
+                  <c:v>0.11230981459754562</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.4398779098002035E-3</c:v>
+                  <c:v>2.190794299351926E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.70838532543751231</c:v>
+                  <c:v>0.62145040548275565</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.6049874381729338E-2</c:v>
+                  <c:v>0.66562761519877578</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.3644778369588541E-3</c:v>
+                  <c:v>0.34593905585151491</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.7423109838357623E-2</c:v>
+                  <c:v>1.6092642867400617E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.16149497819574715</c:v>
+                  <c:v>2.176874375940667E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.8684108080299211</c:v>
+                  <c:v>3.8762981550755679E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.3421086098128303E-2</c:v>
+                  <c:v>0.71119269564584631</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.19209832030829038</c:v>
+                  <c:v>2.7848826787136283E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.10683884066530208</c:v>
+                  <c:v>0.4301203029174086</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.94903895516905112</c:v>
+                  <c:v>6.4708923977497635E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.85866979498029783</c:v>
+                  <c:v>0.1707985872949454</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.84484655518161811</c:v>
+                  <c:v>7.3610695377428412E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.53790677695204181</c:v>
+                  <c:v>0.76875275489301786</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.9977067318970073E-2</c:v>
+                  <c:v>0.29698745255845344</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.76217779868888758</c:v>
+                  <c:v>0.37146925162508826</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.27284125168743784</c:v>
+                  <c:v>6.968965222882037E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.17595792207948477</c:v>
+                  <c:v>0.58847217887922343</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7.8002479157389171E-2</c:v>
+                  <c:v>5.2738120484738839E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.65334324107443087</c:v>
+                  <c:v>0.10922509086294543</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.81894049197872054</c:v>
+                  <c:v>0.1833622354819899</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.97337348163204074</c:v>
+                  <c:v>0.24050632873222089</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7.7410890764484208E-2</c:v>
+                  <c:v>2.4657026211797321E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.32818327534804465</c:v>
+                  <c:v>0.15342993248684175</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.12798423689609509</c:v>
+                  <c:v>0.70478711329739951</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.31803835156421334</c:v>
+                  <c:v>0.14570910533557033</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.61665438040176845</c:v>
+                  <c:v>6.4169625301711787E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.1376026858457528</c:v>
+                  <c:v>0.47779166259247141</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.56585759454744378</c:v>
+                  <c:v>0.40679072421917117</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.27942615551611039</c:v>
+                  <c:v>0.83250174208527072</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.51429265368000587</c:v>
+                  <c:v>0.57329609721587593</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.9848543104987304E-5</c:v>
+                  <c:v>3.1663103006017185E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.92088368009870036</c:v>
+                  <c:v>0.57874632004254023</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.10316767083259484</c:v>
+                  <c:v>8.6937733448780544E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.64686600731517385</c:v>
+                  <c:v>8.9941381350984603E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.8327588141501465E-3</c:v>
+                  <c:v>9.2341019760003037E-7</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.21699147149351908</c:v>
+                  <c:v>2.6438465140397454E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.9382594108540161E-3</c:v>
+                  <c:v>0.62788761211689603</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.93777974836230993</c:v>
+                  <c:v>8.3568168893499883E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.15251421689894362</c:v>
+                  <c:v>0.68704586373662824</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.4594896786911381</c:v>
+                  <c:v>0.60919690591777542</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.47154844678922675</c:v>
+                  <c:v>0.20523063001765968</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.76285715366075246</c:v>
+                  <c:v>0.6159780177911206</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>8.6695754084174528E-2</c:v>
+                  <c:v>0.45724088291238563</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.24696248278015112</c:v>
+                  <c:v>0.59049060874128101</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.44998469613462916</c:v>
+                  <c:v>0.87207696548378821</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.50527168801549449</c:v>
+                  <c:v>0.56385190461746326</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.56738483010794205</c:v>
+                  <c:v>0.91323567593898025</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.85058092979339461</c:v>
+                  <c:v>3.1047810228056424E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.94435369445322459</c:v>
+                  <c:v>0.13434818059915235</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.7219411488615438E-3</c:v>
+                  <c:v>0.27900421118203772</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>8.2148656256050346E-4</c:v>
+                  <c:v>0.60763972800873234</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.5989061608745635</c:v>
+                  <c:v>1.0690408424289225E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.46854301758314143</c:v>
+                  <c:v>0.60049541264572037</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.44504754768103361</c:v>
+                  <c:v>0.68219764457569987</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.4058403053015829E-2</c:v>
+                  <c:v>0.49566641861881616</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>4.0620081161864705E-2</c:v>
+                  <c:v>5.3988110156900776E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8.9705374922329523E-2</c:v>
+                  <c:v>8.4061517797879889E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.76085330681195462</c:v>
+                  <c:v>0.96501941264463575</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.9373870861271396E-4</c:v>
+                  <c:v>1.1989307808478818E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.9716814424506684E-3</c:v>
+                  <c:v>9.344600460991951E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.4206458948229177</c:v>
+                  <c:v>8.0560209216305592E-2</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.2797675764813282E-2</c:v>
+                  <c:v>0.17078705188179308</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.15700342749875726</c:v>
+                  <c:v>2.0977559215185531E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.87176395036431298</c:v>
+                  <c:v>0.60305737332124654</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>4.9311761991488283E-3</c:v>
+                  <c:v>7.3280048291554767E-2</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.2220950547005231E-3</c:v>
+                  <c:v>4.2020531564153458E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.56860381422278672</c:v>
+                  <c:v>0.74554197078024087</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.3982548189352889E-2</c:v>
+                  <c:v>0.24671699151025123</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.24364185825114149</c:v>
+                  <c:v>0.43019727301041005</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.34556943075829133</c:v>
+                  <c:v>0.36149865640852769</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.48971341650170896</c:v>
+                  <c:v>0.10173505927345963</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.48537987059436644</c:v>
+                  <c:v>0.70477203795062437</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.11911654479166715</c:v>
+                  <c:v>0.3470098202852927</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.9986819379751368E-4</c:v>
+                  <c:v>0.20027284933122744</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.8783314894396711</c:v>
+                  <c:v>4.4349015423485995E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.0680952749273927E-2</c:v>
+                  <c:v>0.17863116301073614</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.52530022525348063</c:v>
+                  <c:v>0.54943721800312539</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.22438267649286653</c:v>
+                  <c:v>0.15289798603772878</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.28667263332607279</c:v>
+                  <c:v>0.20644794434348324</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.95523535361366285</c:v>
+                  <c:v>8.6031500483217706E-3</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.51225931588190843</c:v>
+                  <c:v>0.47598614884140672</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.94375303476394989</c:v>
+                  <c:v>7.4951506653232725E-4</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.98881104299048317</c:v>
+                  <c:v>0.14739377895800207</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>9.2148872590439492E-3</c:v>
+                  <c:v>3.7229925904161305E-2</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.87236969545832876</c:v>
+                  <c:v>0.59545822616592003</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.17347680565267987</c:v>
+                  <c:v>0.43325642266486308</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.5090107875120494E-2</c:v>
+                  <c:v>0.15491223881442615</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.82953921352660365</c:v>
+                  <c:v>9.1326773733614974E-2</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>5.5204209582581775E-3</c:v>
+                  <c:v>2.4173606337455505E-2</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.0540584818773636E-2</c:v>
+                  <c:v>2.6195440421068521E-2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.74102664166867493</c:v>
+                  <c:v>0.60308954332132048</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.63995634472865903</c:v>
+                  <c:v>0.72932824117211592</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.18105207481850413</c:v>
+                  <c:v>3.3902174558730416E-2</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.38856820613585424</c:v>
+                  <c:v>0.8292840509693441</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.28869443513337961</c:v>
+                  <c:v>0.51276789823416846</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.48121319909656607</c:v>
+                  <c:v>0.67541410462900486</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.68065971290550931</c:v>
+                  <c:v>0.37712509299757419</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.52233518792068445</c:v>
+                  <c:v>8.973379626756808E-3</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.1930089670481075E-2</c:v>
+                  <c:v>0.21133900270865366</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.6182294475897096E-4</c:v>
+                  <c:v>5.4856136062541951E-2</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.21073871154553933</c:v>
+                  <c:v>0.73690313723945544</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.9157819169035431E-2</c:v>
+                  <c:v>0.31018901865679144</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.82257727581618734</c:v>
+                  <c:v>0.35938329421861825</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.99843148404101134</c:v>
+                  <c:v>0.83576163288513905</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.11269625554707809</c:v>
+                  <c:v>0.52318410711051377</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>4.3948308548505628E-2</c:v>
+                  <c:v>0.10506967717390953</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.81381027758607127</c:v>
+                  <c:v>0.33461129376585902</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.59901781604038717</c:v>
+                  <c:v>0.53800552178664762</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>5.5607167227749492E-2</c:v>
+                  <c:v>0.27756353413992141</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.17571120905960175</c:v>
+                  <c:v>3.5472133350866283E-2</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.15697180070428721</c:v>
+                  <c:v>0.39763915725119442</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.14260054566255159</c:v>
+                  <c:v>2.3591119677775054E-3</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.27250269869444749</c:v>
+                  <c:v>0.17006266260665628</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.13530429646341638</c:v>
+                  <c:v>0.97520696104385451</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.98172399351561868</c:v>
+                  <c:v>0.59883437174327558</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.19761093680631947</c:v>
+                  <c:v>7.6162635574041043E-2</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.14082821892677411</c:v>
+                  <c:v>2.4842797058988626E-2</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.0260667150813259E-2</c:v>
+                  <c:v>0.30142586242344666</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.9146609419138881E-3</c:v>
+                  <c:v>2.1308260285280767E-2</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>6.7741911311009428E-2</c:v>
+                  <c:v>0.36686417075696603</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2.771905846769384E-4</c:v>
+                  <c:v>9.0157809403447586E-2</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.93840305132724189</c:v>
+                  <c:v>0.11107142184899524</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.2915402868698197</c:v>
+                  <c:v>0.74141590874459606</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.75172908877184563</c:v>
+                  <c:v>0.14404709676658439</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>7.3356123497028594E-2</c:v>
+                  <c:v>3.8692237541950891E-2</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.24215203960599321</c:v>
+                  <c:v>0.47777692179205217</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.48105527361436212</c:v>
+                  <c:v>0.51368252596914232</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1.3041155849676363E-2</c:v>
+                  <c:v>4.4858275456032472E-2</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5.4633045488092224E-3</c:v>
+                  <c:v>0.60540742681218773</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>7.0580863303943087E-2</c:v>
+                  <c:v>0.16335904617431354</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3.2304953758226153E-2</c:v>
+                  <c:v>6.2197677626901739E-2</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.46242427198300529</c:v>
+                  <c:v>0.2378360321135414</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.50269538520055523</c:v>
+                  <c:v>0.14995281418263978</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.26278279671226057</c:v>
+                  <c:v>0.97926442862630969</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1.5722328550083261E-2</c:v>
+                  <c:v>0.86578253513057779</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.20508516468523208</c:v>
+                  <c:v>0.72607135222142927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8672,34 +8672,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.11</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.5000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.08</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.105</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>9.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.5000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13069,18 +13069,18 @@
       </c>
       <c r="B3">
         <f ca="1">RAND()</f>
-        <v>0.77959812057972211</v>
+        <v>0.43171791273338633</v>
       </c>
       <c r="C3">
         <f ca="1">B3^2</f>
-        <v>0.60777322961143498</v>
+        <v>0.18638035617487178</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3">
         <f ca="1">AVERAGE(C3:C202)</f>
-        <v>0.36704784714458916</v>
+        <v>0.33194172539316874</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -13089,11 +13089,11 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B67" ca="1" si="0">RAND()</f>
-        <v>0.67480516665949319</v>
+        <v>0.37427554382085426</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C67" ca="1" si="1">B4^2</f>
-        <v>0.4553620129503464</v>
+        <v>0.1400821827023962</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -13105,11 +13105,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79147825899500523</v>
+        <v>0.69155329719172598</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6264378344617646</v>
+        <v>0.4782459628567477</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -13130,11 +13130,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54654065878107749</v>
+        <v>0.75115894678053807</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29870669170085418</v>
+        <v>0.56423976332844727</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13144,11 +13144,11 @@
       </c>
       <c r="F6">
         <f ca="1">COUNTIF($B$3:$B$202, "&gt;="&amp;D6)-COUNTIF($B$3:$B$202,"&gt;"&amp;E6)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <f ca="1">F6/$F$16</f>
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="H6">
         <f>(D6+E6)/2</f>
@@ -13161,11 +13161,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22923350353566307</v>
+        <v>0.15638828809704219</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2547999143234853E-2</v>
+        <v>2.4457296653923471E-2</v>
       </c>
       <c r="D7">
         <v>0.1</v>
@@ -13175,11 +13175,11 @@
       </c>
       <c r="F7">
         <f t="shared" ref="F7:F15" ca="1" si="2">COUNTIF($B$3:$B$202, "&gt;="&amp;D7)-COUNTIF($B$3:$B$202,"&gt;"&amp;E7)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G15" ca="1" si="3">F7/$F$16</f>
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H7">
         <f t="shared" ref="H7:H15" si="4">(D7+E7)/2</f>
@@ -13192,11 +13192,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99799268945893671</v>
+        <v>0.46204238761294103</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9959894082134817</v>
+        <v>0.21348316795106725</v>
       </c>
       <c r="D8">
         <v>0.2</v>
@@ -13206,11 +13206,11 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5000000000000006E-2</v>
+        <v>0.09</v>
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
@@ -13223,11 +13223,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51884950786550377</v>
+        <v>0.30299398694483537</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26920481181227546</v>
+        <v>9.1805356124727067E-2</v>
       </c>
       <c r="D9">
         <v>0.3</v>
@@ -13237,11 +13237,11 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
@@ -13254,11 +13254,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63167669258201686</v>
+        <v>0.4665146438583706</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39901544395135585</v>
+        <v>0.21763591293430237</v>
       </c>
       <c r="D10">
         <v>0.4</v>
@@ -13268,11 +13268,11 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5000000000000006E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
@@ -13285,11 +13285,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1726205933205622E-2</v>
+        <v>0.70442359000922028</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7202802425205917E-4</v>
+        <v>0.49621259416147806</v>
       </c>
       <c r="D11">
         <v>0.5</v>
@@ -13299,11 +13299,11 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.105</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
@@ -13316,11 +13316,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36853256098477016</v>
+        <v>0.91473935768816106</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13581624850599333</v>
+        <v>0.83674809250374949</v>
       </c>
       <c r="D12">
         <v>0.6</v>
@@ -13330,11 +13330,11 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5000000000000001E-2</v>
+        <v>0.115</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
@@ -13347,11 +13347,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84979139661131553</v>
+        <v>0.74255122078522073</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72214541775461016</v>
+        <v>0.55138231548962158</v>
       </c>
       <c r="D13">
         <v>0.7</v>
@@ -13361,11 +13361,11 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.105</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
@@ -13378,11 +13378,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8870981776529232</v>
+        <v>0.50742883240758951</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78694317679513726</v>
+        <v>0.25748401995852954</v>
       </c>
       <c r="D14">
         <v>0.8</v>
@@ -13392,11 +13392,11 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="4"/>
@@ -13409,11 +13409,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85544375223450064</v>
+        <v>0.43847015682417223</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73178401323704168</v>
+        <v>0.1922560784254142</v>
       </c>
       <c r="D15">
         <v>0.9</v>
@@ -13423,11 +13423,11 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="4"/>
@@ -13440,11 +13440,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69688362818778848</v>
+        <v>0.97979332046599621</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48564679123617582</v>
+        <v>0.95999495082978237</v>
       </c>
       <c r="F16">
         <f ca="1">SUM(F6:F15)</f>
@@ -13457,11 +13457,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47846901687022447</v>
+        <v>0.69779930770061949</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22893260010475916</v>
+        <v>0.48692387382746383</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -13470,11 +13470,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78329287777805501</v>
+        <v>0.48579327262956473</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.613547732377827</v>
+        <v>0.23599510373214261</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -13483,11 +13483,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58569003186085045</v>
+        <v>0.940896282682676</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34303281342116398</v>
+        <v>0.88528581476607815</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -13496,11 +13496,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32544936435547178</v>
+        <v>0.26332427885955179</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10591728875938063</v>
+        <v>6.9339675836902995E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -13509,11 +13509,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75486247722658617</v>
+        <v>0.99014840251318281</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56981735952465828</v>
+        <v>0.9803938589994079</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -13522,11 +13522,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13996115312500135</v>
+        <v>0.98516316335483267</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9589124384080073E-2</v>
+        <v>0.97054645843130072</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -13535,11 +13535,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1849618361190789</v>
+        <v>0.98175443219519876</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4210880820541002E-2</v>
+        <v>0.96384176513491715</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -13548,11 +13548,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8944895532864936E-2</v>
+        <v>0.64998828789625984</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5890906675116582E-4</v>
+        <v>0.42248477440231119</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -13561,11 +13561,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26146967698006152</v>
+        <v>0.28779903197322831</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8366391980057714E-2</v>
+        <v>8.2828282804727288E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -13574,11 +13574,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59187021094238479</v>
+        <v>0.68433698070002202</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35031034660098309</v>
+        <v>0.46831710315362229</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -13587,11 +13587,11 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51757989909867896</v>
+        <v>0.23786948274552189</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26788895195099871</v>
+        <v>5.6581890821622134E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -13600,11 +13600,11 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71869483623984798</v>
+        <v>0.75256011016097879</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51652226763782194</v>
+        <v>0.56634671940550452</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -13613,11 +13613,11 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26779917636588724</v>
+        <v>0.36689939097179358</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>7.171639886224758E-2</v>
+        <v>0.13461516309547306</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -13626,11 +13626,11 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17129155291068909</v>
+        <v>0.31624586312195313</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9340796098555402E-2</v>
+        <v>0.10001144594174911</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62268523437973222</v>
+        <v>0.91312837098792365</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38773690111454207</v>
+        <v>0.83380342190305912</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -13652,11 +13652,11 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96094183849798043</v>
+        <v>0.83750758766014044</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92340921697587874</v>
+        <v>0.70141895938830778</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -13665,11 +13665,11 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54737099462954675</v>
+        <v>0.40973893242463455</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29961500576173927</v>
+        <v>0.16788599274447924</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -13678,11 +13678,11 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20365063178349863</v>
+        <v>0.66191855725954396</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>4.147357982581814E-2</v>
+        <v>0.43813617644455616</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -13691,11 +13691,11 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98171960860351137</v>
+        <v>2.058653688793266E-2</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96377338991663153</v>
+        <v>4.2380550103821214E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -13704,11 +13704,11 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55293299734630486</v>
+        <v>7.8726846333079581E-2</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30573489955436878</v>
+        <v>6.1979163335523259E-3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -13717,11 +13717,11 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19215898556534916</v>
+        <v>0.37576025099747268</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6925075733504065E-2</v>
+        <v>0.14119576622968366</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -13730,11 +13730,11 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82373308783158683</v>
+        <v>0.14456396789634707</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67853619998856074</v>
+        <v>2.0898740813936067E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -13743,11 +13743,11 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94414517435958367</v>
+        <v>4.9047109371999076E-3</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89141011026648864</v>
+        <v>2.4056189377488397E-5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -13756,11 +13756,11 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6148342664073928</v>
+        <v>5.6278836000328569E-3</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37802117514871686</v>
+        <v>3.1673073815518788E-5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -13769,11 +13769,11 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14529033820015447</v>
+        <v>0.51782693929012613</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1109282374315263E-2</v>
+        <v>0.26814473905457997</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -13782,11 +13782,11 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77496177876813255</v>
+        <v>0.23128213271156772</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60056575855146799</v>
+        <v>5.3491424911611227E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -13795,11 +13795,11 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5346383715100802</v>
+        <v>0.56194680486550042</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28583818829095053</v>
+        <v>0.3157842114985448</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -13808,11 +13808,11 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54756501780436495</v>
+        <v>0.71321694489108534</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29982744872309453</v>
+        <v>0.50867841047977347</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -13821,11 +13821,11 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54129564808760589</v>
+        <v>0.68823745928631719</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29300097863858127</v>
+        <v>0.47367080036488513</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -13834,11 +13834,11 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87869903351074341</v>
+        <v>0.61713228288699795</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77211199149271459</v>
+        <v>0.38085225458131766</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -13847,11 +13847,11 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97360070272122057</v>
+        <v>3.229323753266522E-2</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94789832833925447</v>
+        <v>1.0428531903411377E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -13860,11 +13860,11 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94005382375696855</v>
+        <v>0.14769001570865692</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88370119156009774</v>
+        <v>2.1812340740023327E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -13873,11 +13873,11 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37090910975345837</v>
+        <v>0.70457971129326269</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13757356769810303</v>
+        <v>0.49643256956609738</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -13886,11 +13886,11 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47167625616959241</v>
+        <v>0.66336242487637809</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22247849063416297</v>
+        <v>0.44004970673786836</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -13899,11 +13899,11 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84605206260222965</v>
+        <v>0.18589793039912716</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7158040926334871</v>
+        <v>3.4558040526678727E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -13912,11 +13912,11 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3375853528625532E-3</v>
+        <v>0.57296605079609109</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9515329516268182E-5</v>
+        <v>0.32829009536486881</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -13925,11 +13925,11 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62141573950945495</v>
+        <v>0.18558545479051514</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38615752131008274</v>
+        <v>3.4441961029802334E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -13938,11 +13938,11 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18457554228618234</v>
+        <v>0.61938695386547515</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4068130810238281E-2</v>
+        <v>0.38364019861875226</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -13951,11 +13951,11 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31813257686763796</v>
+        <v>0.6626755928617114</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10120833646444358</v>
+        <v>0.43913894137462067</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -13964,11 +13964,11 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93193562286449894</v>
+        <v>0.58521133171199624</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86850400516384163</v>
+        <v>0.3424723027641281</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -13977,11 +13977,11 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7356437877831199</v>
+        <v>0.56228022687116641</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54117178250389597</v>
+        <v>0.31615905353029039</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -13990,11 +13990,11 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89725536564351638</v>
+        <v>0.72721258477276751</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80506719117608028</v>
+        <v>0.52883814345188962</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -14003,11 +14003,11 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55704710411099112</v>
+        <v>0.2515459634840761</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31030147619844139</v>
+        <v>6.3275371745132147E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -14016,11 +14016,11 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0118705537369626E-2</v>
+        <v>0.94629462741807235</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6095105339941722E-3</v>
+        <v>0.89547352188030838</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -14029,11 +14029,11 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92412351109379187</v>
+        <v>0.94314706695612793</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85400426375631766</v>
+        <v>0.88952638990794686</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -14042,11 +14042,11 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89591913826473402</v>
+        <v>0.96144610316358148</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80267110230902361</v>
+        <v>0.92437860928843618</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -14055,11 +14055,11 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48135691988354057</v>
+        <v>7.2461601023788735E-2</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23170448431976928</v>
+        <v>5.2506836229307408E-3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -14068,11 +14068,11 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6017616698046051</v>
+        <v>0.15760281192378423</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36211710724602658</v>
+        <v>2.4838646326283704E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -14081,11 +14081,11 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25567089055648007</v>
+        <v>0.33512656504303806</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5367604277943608E-2</v>
+        <v>0.11230981459754562</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -14094,11 +14094,11 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7945723208290594E-2</v>
+        <v>0.14801332032462233</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4398779098002035E-3</v>
+        <v>2.190794299351926E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -14107,11 +14107,11 @@
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84165629887592019</v>
+        <v>0.78832125778945961</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70838532543751231</v>
+        <v>0.62145040548275565</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -14120,11 +14120,11 @@
       </c>
       <c r="B68">
         <f t="shared" ref="B68:B131" ca="1" si="5">RAND()</f>
-        <v>0.18986804465662288</v>
+        <v>0.81586004633072684</v>
       </c>
       <c r="C68">
         <f t="shared" ref="C68:C131" ca="1" si="6">B68^2</f>
-        <v>3.6049874381729338E-2</v>
+        <v>0.66562761519877578</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -14133,11 +14133,11 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6064194818062028E-2</v>
+        <v>0.58816584043236897</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3644778369588541E-3</v>
+        <v>0.34593905585151491</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -14146,11 +14146,11 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27825008506442117</v>
+        <v>0.12685678092794495</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="6"/>
-        <v>7.7423109838357623E-2</v>
+        <v>1.6092642867400617E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -14159,11 +14159,11 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4018643778636608</v>
+        <v>0.14754234564831437</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16149497819574715</v>
+        <v>2.176874375940667E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -14172,11 +14172,11 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93188561960678473</v>
+        <v>0.19688316726108324</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8684108080299211</v>
+        <v>3.8762981550755679E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -14185,11 +14185,11 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11584941129815163</v>
+        <v>0.84332241500261707</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3421086098128303E-2</v>
+        <v>0.71119269564584631</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -14198,11 +14198,11 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="5"/>
-        <v>0.438290223833809</v>
+        <v>0.16687967757380251</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19209832030829038</v>
+        <v>2.7848826787136283E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -14211,11 +14211,11 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32686211261830589</v>
+        <v>0.65583557612972521</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10683884066530208</v>
+        <v>0.4301203029174086</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -14224,11 +14224,11 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9741863041374843</v>
+        <v>8.0441857249505144E-2</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="6"/>
-        <v>0.94903895516905112</v>
+        <v>6.4708923977497635E-3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -14237,11 +14237,11 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="5"/>
-        <v>0.92664437352217155</v>
+        <v>0.41327785725217048</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="6"/>
-        <v>0.85866979498029783</v>
+        <v>0.1707985872949454</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -14250,11 +14250,11 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91915534877495986</v>
+        <v>8.5796675563467151E-2</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84484655518161811</v>
+        <v>7.3610695377428412E-3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73342128204193924</v>
+        <v>0.87678546685778147</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53790677695204181</v>
+        <v>0.76875275489301786</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -14276,11 +14276,11 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22355551283511232</v>
+        <v>0.5449655517172195</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9977067318970073E-2</v>
+        <v>0.29698745255845344</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -14289,11 +14289,11 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="5"/>
-        <v>0.87302794840078723</v>
+        <v>0.6094827738542643</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="6"/>
-        <v>0.76217779868888758</v>
+        <v>0.37146925162508826</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -14302,11 +14302,11 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52234208301403195</v>
+        <v>0.26398797743234514</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27284125168743784</v>
+        <v>6.968965222882037E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -14315,11 +14315,11 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41947338661646316</v>
+        <v>0.7671194032738472</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17595792207948477</v>
+        <v>0.58847217887922343</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -14328,11 +14328,11 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27928923924381543</v>
+        <v>7.262101657560216E-2</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8002479157389171E-2</v>
+        <v>5.2738120484738839E-3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -14341,11 +14341,11 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8082965056675866</v>
+        <v>0.33049219485934223</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65334324107443087</v>
+        <v>0.10922509086294543</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -14354,11 +14354,11 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90495330928104822</v>
+        <v>0.42820816839708919</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81894049197872054</v>
+        <v>0.1833622354819899</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -14367,11 +14367,11 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9865969195330182</v>
+        <v>0.4904144458845201</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97337348163204074</v>
+        <v>0.24050632873222089</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -14380,11 +14380,11 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27822812719867884</v>
+        <v>0.15702555910359728</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>7.7410890764484208E-2</v>
+        <v>2.4657026211797321E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -14393,11 +14393,11 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57287282650518923</v>
+        <v>0.39170133071875279</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>0.32818327534804465</v>
+        <v>0.15342993248684175</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -14406,11 +14406,11 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35774884611427482</v>
+        <v>0.83951599942907551</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>0.12798423689609509</v>
+        <v>0.70478711329739951</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -14419,11 +14419,11 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56394889091495992</v>
+        <v>0.38171862062986961</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31803835156421334</v>
+        <v>0.14570910533557033</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -14432,11 +14432,11 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="5"/>
-        <v>0.78527344307684854</v>
+        <v>8.0105945660551181E-2</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>0.61665438040176845</v>
+        <v>6.4169625301711787E-3</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -14445,11 +14445,11 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37094836007961107</v>
+        <v>0.69122475548295537</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>0.1376026858457528</v>
+        <v>0.47779166259247141</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -14458,11 +14458,11 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75223506601822532</v>
+        <v>0.6378014771221302</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>0.56585759454744378</v>
+        <v>0.40679072421917117</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -14471,11 +14471,11 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52860775203936461</v>
+        <v>0.91241533420108123</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27942615551611039</v>
+        <v>0.83250174208527072</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -14484,11 +14484,11 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71714200384582538</v>
+        <v>0.75716319061076653</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51429265368000587</v>
+        <v>0.57329609721587593</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -14497,11 +14497,11 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="5"/>
-        <v>9.4788471400791829E-3</v>
+        <v>0.17794129089679322</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>8.9848543104987304E-5</v>
+        <v>3.1663103006017185E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -14510,11 +14510,11 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95962684419450273</v>
+        <v>0.76075378411319139</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>0.92088368009870036</v>
+        <v>0.57874632004254023</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -14523,11 +14523,11 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32119724599161004</v>
+        <v>0.29485205349256183</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10316767083259484</v>
+        <v>8.6937733448780544E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -14536,11 +14536,11 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80427980660661491</v>
+        <v>0.2999022863383749</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="6"/>
-        <v>0.64686600731517385</v>
+        <v>8.9941381350984603E-2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -14549,11 +14549,11 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2810732464536816E-2</v>
+        <v>9.6094234873900231E-4</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8327588141501465E-3</v>
+        <v>9.2341019760003037E-7</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -14562,11 +14562,11 @@
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46582343381749169</v>
+        <v>1.6259909329512712E-2</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21699147149351908</v>
+        <v>2.6438465140397454E-4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -14575,11 +14575,11 @@
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="5"/>
-        <v>6.2755552828845484E-2</v>
+        <v>0.79239359671623799</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="6"/>
-        <v>3.9382594108540161E-3</v>
+        <v>0.62788761211689603</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -14588,11 +14588,11 @@
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96839028720981601</v>
+        <v>0.28908159556343238</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="6"/>
-        <v>0.93777974836230993</v>
+        <v>8.3568168893499883E-2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -14601,11 +14601,11 @@
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39053068624493981</v>
+        <v>0.8288822978786724</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15251421689894362</v>
+        <v>0.68704586373662824</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -14614,11 +14614,11 @@
       </c>
       <c r="B106">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67785668005201372</v>
+        <v>0.78051066995767293</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4594896786911381</v>
+        <v>0.60919690591777542</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -14627,11 +14627,11 @@
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68669385230190227</v>
+        <v>0.45302387356259677</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47154844678922675</v>
+        <v>0.20523063001765968</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -14640,11 +14640,11 @@
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="5"/>
-        <v>0.87341694147798188</v>
+        <v>0.78484267072523561</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="6"/>
-        <v>0.76285715366075246</v>
+        <v>0.6159780177911206</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -14653,11 +14653,11 @@
       </c>
       <c r="B109">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29444142725536182</v>
+        <v>0.67619589093130816</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6695754084174528E-2</v>
+        <v>0.45724088291238563</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -14666,11 +14666,11 @@
       </c>
       <c r="B110">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49695319978862307</v>
+        <v>0.76843386751319143</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24696248278015112</v>
+        <v>0.59049060874128101</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -14679,11 +14679,11 @@
       </c>
       <c r="B111">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67080898632519015</v>
+        <v>0.93385061197377184</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44998469613462916</v>
+        <v>0.87207696548378821</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -14692,11 +14692,11 @@
       </c>
       <c r="B112">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71082465349444268</v>
+        <v>0.75090072886997739</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50527168801549449</v>
+        <v>0.56385190461746326</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -14705,11 +14705,11 @@
       </c>
       <c r="B113">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75324951384514149</v>
+        <v>0.95563365153126556</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="6"/>
-        <v>0.56738483010794205</v>
+        <v>0.91323567593898025</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -14718,11 +14718,11 @@
       </c>
       <c r="B114">
         <f t="shared" ca="1" si="5"/>
-        <v>0.92226944533221666</v>
+        <v>5.5720561939069158E-2</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="6"/>
-        <v>0.85058092979339461</v>
+        <v>3.1047810228056424E-3</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -14731,11 +14731,11 @@
       </c>
       <c r="B115">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97177862420060701</v>
+        <v>0.3665353742807812</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="6"/>
-        <v>0.94435369445322459</v>
+        <v>0.13434818059915235</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -14744,11 +14744,11 @@
       </c>
       <c r="B116">
         <f t="shared" ca="1" si="5"/>
-        <v>4.1496278735105196E-2</v>
+        <v>0.52820849215251897</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7219411488615438E-3</v>
+        <v>0.27900421118203772</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -14757,11 +14757,11 @@
       </c>
       <c r="B117">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8661586881408074E-2</v>
+        <v>0.77951249381182619</v>
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="6"/>
-        <v>8.2148656256050346E-4</v>
+        <v>0.60763972800873234</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -14770,11 +14770,11 @@
       </c>
       <c r="B118">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77389027702547308</v>
+        <v>0.103394431302122</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5989061608745635</v>
+        <v>1.0690408424289225E-2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -14783,11 +14783,11 @@
       </c>
       <c r="B119">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68450202160632179</v>
+        <v>0.77491639074529861</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="6"/>
-        <v>0.46854301758314143</v>
+        <v>0.60049541264572037</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -14796,11 +14796,11 @@
       </c>
       <c r="B120">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66711884074805861</v>
+        <v>0.82595256799388905</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44504754768103361</v>
+        <v>0.68219764457569987</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -14809,11 +14809,11 @@
       </c>
       <c r="B121">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18454918870863624</v>
+        <v>0.70403580776748576</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4058403053015829E-2</v>
+        <v>0.49566641861881616</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -14822,11 +14822,11 @@
       </c>
       <c r="B122">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20154424120243353</v>
+        <v>0.23235341649500396</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0620081161864705E-2</v>
+        <v>5.3988110156900776E-2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -14835,11 +14835,11 @@
       </c>
       <c r="B123">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29950855567467438</v>
+        <v>0.28993364378402153</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="6"/>
-        <v>8.9705374922329523E-2</v>
+        <v>8.4061517797879889E-2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -14848,11 +14848,11 @@
       </c>
       <c r="B124">
         <f t="shared" ca="1" si="5"/>
-        <v>0.87226905643382457</v>
+        <v>0.98235401594569549</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="6"/>
-        <v>0.76085330681195462</v>
+        <v>0.96501941264463575</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -14861,11 +14861,11 @@
       </c>
       <c r="B125">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3919005302560739E-2</v>
+        <v>3.4625579862983979E-2</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9373870861271396E-4</v>
+        <v>1.1989307808478818E-3</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -14874,11 +14874,11 @@
       </c>
       <c r="B126">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4403619699869834E-2</v>
+        <v>9.6667473645440594E-2</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9716814424506684E-3</v>
+        <v>9.344600460991951E-3</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="B127">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6485721970782572</v>
+        <v>0.28383130415143709</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4206458948229177</v>
+        <v>8.0560209216305592E-2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -14900,11 +14900,11 @@
       </c>
       <c r="B128">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15098899219748863</v>
+        <v>0.41326390101458543</v>
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2797675764813282E-2</v>
+        <v>0.17078705188179308</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -14913,11 +14913,11 @@
       </c>
       <c r="B129">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39623658021282848</v>
+        <v>4.5801265501277943E-2</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15700342749875726</v>
+        <v>2.0977559215185531E-3</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -14926,11 +14926,11 @@
       </c>
       <c r="B130">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93368300314631036</v>
+        <v>0.77656768753357652</v>
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="6"/>
-        <v>0.87176395036431298</v>
+        <v>0.60305737332124654</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -14939,11 +14939,11 @@
       </c>
       <c r="B131">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0222334047999491E-2</v>
+        <v>0.27070287824763661</v>
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9311761991488283E-3</v>
+        <v>7.3280048291554767E-2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -14952,11 +14952,11 @@
       </c>
       <c r="B132">
         <f t="shared" ref="B132:B195" ca="1" si="7">RAND()</f>
-        <v>3.49584761495767E-2</v>
+        <v>6.4823245494308179E-2</v>
       </c>
       <c r="C132">
         <f t="shared" ref="C132:C195" ca="1" si="8">B132^2</f>
-        <v>1.2220950547005231E-3</v>
+        <v>4.2020531564153458E-3</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -14965,11 +14965,11 @@
       </c>
       <c r="B133">
         <f t="shared" ca="1" si="7"/>
-        <v>0.75405822999473104</v>
+        <v>0.86344772324689167</v>
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="8"/>
-        <v>0.56860381422278672</v>
+        <v>0.74554197078024087</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -14978,11 +14978,11 @@
       </c>
       <c r="B134">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18434356020580944</v>
+        <v>0.49670614200979157</v>
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="8"/>
-        <v>3.3982548189352889E-2</v>
+        <v>0.24671699151025123</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -14991,11 +14991,11 @@
       </c>
       <c r="B135">
         <f t="shared" ca="1" si="7"/>
-        <v>0.49360090989699512</v>
+        <v>0.65589425444229199</v>
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="8"/>
-        <v>0.24364185825114149</v>
+        <v>0.43019727301041005</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -15004,11 +15004,11 @@
       </c>
       <c r="B136">
         <f t="shared" ca="1" si="7"/>
-        <v>0.58785153802494328</v>
+        <v>0.60124758328705796</v>
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="8"/>
-        <v>0.34556943075829133</v>
+        <v>0.36149865640852769</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -15017,11 +15017,11 @@
       </c>
       <c r="B137">
         <f t="shared" ca="1" si="7"/>
-        <v>0.69979526756166976</v>
+        <v>0.31895933796247389</v>
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="8"/>
-        <v>0.48971341650170896</v>
+        <v>0.10173505927345963</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -15030,11 +15030,11 @@
       </c>
       <c r="B138">
         <f t="shared" ca="1" si="7"/>
-        <v>0.69669209166917234</v>
+        <v>0.83950702078697614</v>
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="8"/>
-        <v>0.48537987059436644</v>
+        <v>0.70477203795062437</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -15043,11 +15043,11 @@
       </c>
       <c r="B139">
         <f t="shared" ca="1" si="7"/>
-        <v>0.34513264811035649</v>
+        <v>0.58907539439811329</v>
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="8"/>
-        <v>0.11911654479166715</v>
+        <v>0.3470098202852927</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -15056,11 +15056,11 @@
       </c>
       <c r="B140">
         <f t="shared" ca="1" si="7"/>
-        <v>1.9996704573441937E-2</v>
+        <v>0.44751854635448063</v>
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="8"/>
-        <v>3.9986819379751368E-4</v>
+        <v>0.20027284933122744</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -15069,11 +15069,11 @@
       </c>
       <c r="B141">
         <f t="shared" ca="1" si="7"/>
-        <v>0.93719341090282482</v>
+        <v>0.21059205926028168</v>
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="8"/>
-        <v>0.8783314894396711</v>
+        <v>4.4349015423485995E-2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -15082,11 +15082,11 @@
       </c>
       <c r="B142">
         <f t="shared" ca="1" si="7"/>
-        <v>0.14380873669312977</v>
+        <v>0.42264780019625814</v>
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="8"/>
-        <v>2.0680952749273927E-2</v>
+        <v>0.17863116301073614</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -15095,11 +15095,11 @@
       </c>
       <c r="B143">
         <f t="shared" ca="1" si="7"/>
-        <v>0.72477598280674327</v>
+        <v>0.74124032405362661</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="8"/>
-        <v>0.52530022525348063</v>
+        <v>0.54943721800312539</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -15108,11 +15108,11 @@
       </c>
       <c r="B144">
         <f t="shared" ca="1" si="7"/>
-        <v>0.47369048596405916</v>
+        <v>0.39102172067255903</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="8"/>
-        <v>0.22438267649286653</v>
+        <v>0.15289798603772878</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -15121,11 +15121,11 @@
       </c>
       <c r="B145">
         <f t="shared" ca="1" si="7"/>
-        <v>0.53541818546447673</v>
+        <v>0.45436543040099697</v>
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="8"/>
-        <v>0.28667263332607279</v>
+        <v>0.20644794434348324</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -15134,11 +15134,11 @@
       </c>
       <c r="B146">
         <f t="shared" ca="1" si="7"/>
-        <v>0.97736142425085659</v>
+        <v>9.2753167322317198E-2</v>
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="8"/>
-        <v>0.95523535361366285</v>
+        <v>8.6031500483217706E-3</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -15147,11 +15147,11 @@
       </c>
       <c r="B147">
         <f t="shared" ca="1" si="7"/>
-        <v>0.71572293234317175</v>
+        <v>0.68991749422768422</v>
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="8"/>
-        <v>0.51225931588190843</v>
+        <v>0.47598614884140672</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -15160,11 +15160,11 @@
       </c>
       <c r="B148">
         <f t="shared" ca="1" si="7"/>
-        <v>0.97146952333253866</v>
+        <v>2.7377272810349962E-2</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="8"/>
-        <v>0.94375303476394989</v>
+        <v>7.4951506653232725E-4</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -15173,11 +15173,11 @@
       </c>
       <c r="B149">
         <f t="shared" ca="1" si="7"/>
-        <v>0.99438978423477542</v>
+        <v>0.38391897446987699</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="8"/>
-        <v>0.98881104299048317</v>
+        <v>0.14739377895800207</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -15186,11 +15186,11 @@
       </c>
       <c r="B150">
         <f t="shared" ca="1" si="7"/>
-        <v>9.599420429923855E-2</v>
+        <v>0.19295057891636735</v>
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="8"/>
-        <v>9.2148872590439492E-3</v>
+        <v>3.7229925904161305E-2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -15199,11 +15199,11 @@
       </c>
       <c r="B151">
         <f t="shared" ca="1" si="7"/>
-        <v>0.93400733158703242</v>
+        <v>0.77165939776945636</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="8"/>
-        <v>0.87236969545832876</v>
+        <v>0.59545822616592003</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -15212,11 +15212,11 @@
       </c>
       <c r="B152">
         <f t="shared" ca="1" si="7"/>
-        <v>0.4165054689348987</v>
+        <v>0.65822216816578205</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17347680565267987</v>
+        <v>0.43325642266486308</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -15225,11 +15225,11 @@
       </c>
       <c r="B153">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15839857283170355</v>
+        <v>0.39358892110224108</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="8"/>
-        <v>2.5090107875120494E-2</v>
+        <v>0.15491223881442615</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -15238,11 +15238,11 @@
       </c>
       <c r="B154">
         <f t="shared" ca="1" si="7"/>
-        <v>0.91079043337455168</v>
+        <v>0.30220319940995821</v>
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="8"/>
-        <v>0.82953921352660365</v>
+        <v>9.1326773733614974E-2</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -15251,11 +15251,11 @@
       </c>
       <c r="B155">
         <f t="shared" ca="1" si="7"/>
-        <v>7.4299535383864801E-2</v>
+        <v>0.15547863627346203</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="8"/>
-        <v>5.5204209582581775E-3</v>
+        <v>2.4173606337455505E-2</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -15264,11 +15264,11 @@
       </c>
       <c r="B156">
         <f t="shared" ca="1" si="7"/>
-        <v>0.10266735030560414</v>
+        <v>0.16185005536319264</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0540584818773636E-2</v>
+        <v>2.6195440421068521E-2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -15277,11 +15277,11 @@
       </c>
       <c r="B157">
         <f t="shared" ca="1" si="7"/>
-        <v>0.86082904323023102</v>
+        <v>0.77658840019750519</v>
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="8"/>
-        <v>0.74102664166867493</v>
+        <v>0.60308954332132048</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -15290,11 +15290,11 @@
       </c>
       <c r="B158">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79997271499011702</v>
+        <v>0.85400716693252399</v>
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="8"/>
-        <v>0.63995634472865903</v>
+        <v>0.72932824117211592</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -15303,11 +15303,11 @@
       </c>
       <c r="B159">
         <f t="shared" ca="1" si="7"/>
-        <v>0.42550214431716338</v>
+        <v>0.18412543159143013</v>
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="8"/>
-        <v>0.18105207481850413</v>
+        <v>3.3902174558730416E-2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -15316,11 +15316,11 @@
       </c>
       <c r="B160">
         <f t="shared" ca="1" si="7"/>
-        <v>0.62335239322220803</v>
+        <v>0.91065034506628506</v>
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="8"/>
-        <v>0.38856820613585424</v>
+        <v>0.8292840509693441</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -15329,11 +15329,11 @@
       </c>
       <c r="B161">
         <f t="shared" ca="1" si="7"/>
-        <v>0.53730292678653779</v>
+        <v>0.71607813696144118</v>
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="8"/>
-        <v>0.28869443513337961</v>
+        <v>0.51276789823416846</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -15342,11 +15342,11 @@
       </c>
       <c r="B162">
         <f t="shared" ca="1" si="7"/>
-        <v>0.69369532151843583</v>
+        <v>0.82183581366901071</v>
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="8"/>
-        <v>0.48121319909656607</v>
+        <v>0.67541410462900486</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -15355,11 +15355,11 @@
       </c>
       <c r="B163">
         <f t="shared" ca="1" si="7"/>
-        <v>0.82502103785631387</v>
+        <v>0.61410511559306702</v>
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68065971290550931</v>
+        <v>0.37712509299757419</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -15368,11 +15368,11 @@
       </c>
       <c r="B164">
         <f t="shared" ca="1" si="7"/>
-        <v>0.72272760284956905</v>
+        <v>9.4727924218557691E-2</v>
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="8"/>
-        <v>0.52233518792068445</v>
+        <v>8.973379626756808E-3</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -15381,11 +15381,11 @@
       </c>
       <c r="B165">
         <f t="shared" ca="1" si="7"/>
-        <v>0.10922494985341524</v>
+        <v>0.45971621975807386</v>
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1930089670481075E-2</v>
+        <v>0.21133900270865366</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -15394,11 +15394,11 @@
       </c>
       <c r="B166">
         <f t="shared" ca="1" si="7"/>
-        <v>1.9021644112930169E-2</v>
+        <v>0.23421386821138912</v>
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="8"/>
-        <v>3.6182294475897096E-4</v>
+        <v>5.4856136062541951E-2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -15407,11 +15407,11 @@
       </c>
       <c r="B167">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45906286230269089</v>
+        <v>0.85843062459319064</v>
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="8"/>
-        <v>0.21073871154553933</v>
+        <v>0.73690313723945544</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -15420,11 +15420,11 @@
       </c>
       <c r="B168">
         <f t="shared" ca="1" si="7"/>
-        <v>0.13841177395379134</v>
+        <v>0.55694615418080717</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9157819169035431E-2</v>
+        <v>0.31018901865679144</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -15433,11 +15433,11 @@
       </c>
       <c r="B169">
         <f t="shared" ca="1" si="7"/>
-        <v>0.90696045989678475</v>
+        <v>0.5994858582307161</v>
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="8"/>
-        <v>0.82257727581618734</v>
+        <v>0.35938329421861825</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -15446,11 +15446,11 @@
       </c>
       <c r="B170">
         <f t="shared" ca="1" si="7"/>
-        <v>0.99921543424879666</v>
+        <v>0.91419999610869562</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="8"/>
-        <v>0.99843148404101134</v>
+        <v>0.83576163288513905</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="B171">
         <f t="shared" ca="1" si="7"/>
-        <v>0.33570262963980202</v>
+        <v>0.72331466673261491</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="8"/>
-        <v>0.11269625554707809</v>
+        <v>0.52318410711051377</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -15472,11 +15472,11 @@
       </c>
       <c r="B172">
         <f t="shared" ca="1" si="7"/>
-        <v>0.20963851876147577</v>
+        <v>0.32414453130341336</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="8"/>
-        <v>4.3948308548505628E-2</v>
+        <v>0.10506967717390953</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -15485,11 +15485,11 @@
       </c>
       <c r="B173">
         <f t="shared" ca="1" si="7"/>
-        <v>0.90211433731322066</v>
+        <v>0.57845595663443472</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="8"/>
-        <v>0.81381027758607127</v>
+        <v>0.33461129376585902</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -15498,11 +15498,11 @@
       </c>
       <c r="B174">
         <f t="shared" ca="1" si="7"/>
-        <v>0.77396241255011033</v>
+        <v>0.73348859690294277</v>
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="8"/>
-        <v>0.59901781604038717</v>
+        <v>0.53800552178664762</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="B175">
         <f t="shared" ca="1" si="7"/>
-        <v>0.23581171986936844</v>
+        <v>0.52684298812826713</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="8"/>
-        <v>5.5607167227749492E-2</v>
+        <v>0.27756353413992141</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -15524,11 +15524,11 @@
       </c>
       <c r="B176">
         <f t="shared" ca="1" si="7"/>
-        <v>0.41917920876350934</v>
+        <v>0.18834047188765957</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17571120905960175</v>
+        <v>3.5472133350866283E-2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -15537,11 +15537,11 @@
       </c>
       <c r="B177">
         <f t="shared" ca="1" si="7"/>
-        <v>0.39619666922412056</v>
+        <v>0.6305863598676984</v>
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="8"/>
-        <v>0.15697180070428721</v>
+        <v>0.39763915725119442</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -15550,11 +15550,11 @@
       </c>
       <c r="B178">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3776248742635363</v>
+        <v>4.8570690418991425E-2</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="8"/>
-        <v>0.14260054566255159</v>
+        <v>2.3591119677775054E-3</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -15563,11 +15563,11 @@
       </c>
       <c r="B179">
         <f t="shared" ca="1" si="7"/>
-        <v>0.52201791031960532</v>
+        <v>0.4123865451329084</v>
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="8"/>
-        <v>0.27250269869444749</v>
+        <v>0.17006266260665628</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -15576,11 +15576,11 @@
       </c>
       <c r="B180">
         <f t="shared" ca="1" si="7"/>
-        <v>0.36783732336919861</v>
+        <v>0.98752567614409625</v>
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="8"/>
-        <v>0.13530429646341638</v>
+        <v>0.97520696104385451</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -15589,11 +15589,11 @@
       </c>
       <c r="B181">
         <f t="shared" ca="1" si="7"/>
-        <v>0.99081985926586003</v>
+        <v>0.77384389365250894</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="8"/>
-        <v>0.98172399351561868</v>
+        <v>0.59883437174327558</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -15602,11 +15602,11 @@
       </c>
       <c r="B182">
         <f t="shared" ca="1" si="7"/>
-        <v>0.44453451700213276</v>
+        <v>0.27597578802141509</v>
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="8"/>
-        <v>0.19761093680631947</v>
+        <v>7.6162635574041043E-2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -15615,11 +15615,11 @@
       </c>
       <c r="B183">
         <f t="shared" ca="1" si="7"/>
-        <v>0.37527086074830551</v>
+        <v>0.15761597970697205</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="8"/>
-        <v>0.14082821892677411</v>
+        <v>2.4842797058988626E-2</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -15628,11 +15628,11 @@
       </c>
       <c r="B184">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17395593450875213</v>
+        <v>0.54902264290596126</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="8"/>
-        <v>3.0260667150813259E-2</v>
+        <v>0.30142586242344666</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -15641,11 +15641,11 @@
       </c>
       <c r="B185">
         <f t="shared" ca="1" si="7"/>
-        <v>4.3756838801653486E-2</v>
+        <v>0.14597349172120522</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9146609419138881E-3</v>
+        <v>2.1308260285280767E-2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -15654,11 +15654,11 @@
       </c>
       <c r="B186">
         <f t="shared" ca="1" si="7"/>
-        <v>0.26027276329076277</v>
+        <v>0.60569313249942502</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="8"/>
-        <v>6.7741911311009428E-2</v>
+        <v>0.36686417075696603</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -15667,11 +15667,11 @@
       </c>
       <c r="B187">
         <f t="shared" ca="1" si="7"/>
-        <v>1.6649041554303912E-2</v>
+        <v>0.3002629004779771</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="8"/>
-        <v>2.771905846769384E-4</v>
+        <v>9.0157809403447586E-2</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -15680,11 +15680,11 @@
       </c>
       <c r="B188">
         <f t="shared" ca="1" si="7"/>
-        <v>0.96871205800652749</v>
+        <v>0.33327379412278313</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="8"/>
-        <v>0.93840305132724189</v>
+        <v>0.11107142184899524</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -15693,11 +15693,11 @@
       </c>
       <c r="B189">
         <f t="shared" ca="1" si="7"/>
-        <v>0.53994470723382382</v>
+        <v>0.8610551136510346</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="8"/>
-        <v>0.2915402868698197</v>
+        <v>0.74141590874459606</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -15706,11 +15706,11 @@
       </c>
       <c r="B190">
         <f t="shared" ca="1" si="7"/>
-        <v>0.8670231189373474</v>
+        <v>0.37953536958574019</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="8"/>
-        <v>0.75172908877184563</v>
+        <v>0.14404709676658439</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -15719,11 +15719,11 @@
       </c>
       <c r="B191">
         <f t="shared" ca="1" si="7"/>
-        <v>0.27084335601418874</v>
+        <v>0.1967034253437161</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="8"/>
-        <v>7.3356123497028594E-2</v>
+        <v>3.8692237541950891E-2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -15732,11 +15732,11 @@
       </c>
       <c r="B192">
         <f t="shared" ca="1" si="7"/>
-        <v>0.49208946301053147</v>
+        <v>0.69121409258785527</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="8"/>
-        <v>0.24215203960599321</v>
+        <v>0.47777692179205217</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -15745,11 +15745,11 @@
       </c>
       <c r="B193">
         <f t="shared" ca="1" si="7"/>
-        <v>0.69358148303884393</v>
+        <v>0.71671648925439291</v>
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="8"/>
-        <v>0.48105527361436212</v>
+        <v>0.51368252596914232</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -15758,11 +15758,11 @@
       </c>
       <c r="B194">
         <f t="shared" ca="1" si="7"/>
-        <v>0.11419788023285005</v>
+        <v>0.21179772297178379</v>
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3041155849676363E-2</v>
+        <v>4.4858275456032472E-2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -15771,11 +15771,11 @@
       </c>
       <c r="B195">
         <f t="shared" ca="1" si="7"/>
-        <v>7.3914170148958735E-2</v>
+        <v>0.7780793191006864</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="8"/>
-        <v>5.4633045488092224E-3</v>
+        <v>0.60540742681218773</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -15784,11 +15784,11 @@
       </c>
       <c r="B196">
         <f t="shared" ref="B196:B202" ca="1" si="9">RAND()</f>
-        <v>0.26567059171828389</v>
+        <v>0.40417699857155842</v>
       </c>
       <c r="C196">
         <f t="shared" ref="C196:C202" ca="1" si="10">B196^2</f>
-        <v>7.0580863303943087E-2</v>
+        <v>0.16335904617431354</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -15797,11 +15797,11 @@
       </c>
       <c r="B197">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17973578875178464</v>
+        <v>0.24939462228945863</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="10"/>
-        <v>3.2304953758226153E-2</v>
+        <v>6.2197677626901739E-2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -15810,11 +15810,11 @@
       </c>
       <c r="B198">
         <f t="shared" ca="1" si="9"/>
-        <v>0.68001784681212984</v>
+        <v>0.48768435705232682</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46242427198300529</v>
+        <v>0.2378360321135414</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -15823,11 +15823,11 @@
       </c>
       <c r="B199">
         <f t="shared" ca="1" si="9"/>
-        <v>0.70901014463867529</v>
+        <v>0.38723741320104876</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="10"/>
-        <v>0.50269538520055523</v>
+        <v>0.14995281418263978</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -15836,11 +15836,11 @@
       </c>
       <c r="B200">
         <f t="shared" ca="1" si="9"/>
-        <v>0.51262344534000837</v>
+        <v>0.98957790427348857</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="10"/>
-        <v>0.26278279671226057</v>
+        <v>0.97926442862630969</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -15849,11 +15849,11 @@
       </c>
       <c r="B201">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12538870981903938</v>
+        <v>0.93047436027575625</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="10"/>
-        <v>1.5722328550083261E-2</v>
+        <v>0.86578253513057779</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -15862,11 +15862,11 @@
       </c>
       <c r="B202">
         <f t="shared" ca="1" si="9"/>
-        <v>0.45286329580264295</v>
+        <v>0.85209820573771267</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20508516468523208</v>
+        <v>0.72607135222142927</v>
       </c>
     </row>
   </sheetData>
